--- a/data/golestan_courses_3982.xlsx
+++ b/data/golestan_courses_3982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamyar\Dropbox\PC\Documents\Uni\Sem6\Analysis and Designing System\Katyusha\Back-End\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20447F06-AB6B-414E-BCE3-6B9CF6E4857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E2F14-6512-4648-B7FC-264D1B33AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <t>مختلط</t>
   </si>
   <si>
-    <t>صدر علی</t>
+    <t>علی صدر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -136,7 +136,7 @@
     <t>بی اثر</t>
   </si>
   <si>
-    <t xml:space="preserve">ندارد </t>
+    <t>ندارد</t>
   </si>
   <si>
     <t>عادی</t>
@@ -157,7 +157,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>میرزاکوچکی ستار</t>
+    <t>ستار میرزاکوچکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -178,10 +178,10 @@
     <t>8</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضابیدوند کبری</t>
-  </si>
-  <si>
-    <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
+    <t>کبری جلیلیان خالقی حمیدرضابیدوند</t>
+  </si>
+  <si>
+    <t>درس(ع): شنبه      10:00-13:00 مک</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/19  ساعت: 13:30-15:30</t>
@@ -196,7 +196,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>حبیبی دهکا ژالهبیدوند کبری</t>
+    <t>کبری حبیبی دهکا ژالهبیدوند</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -229,7 +229,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>عباداللهی سعید</t>
+    <t>سعید عباداللهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -253,7 +253,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>چوپانکاره عباسعلیمیرشفیعی سیدمحمدعلی</t>
+    <t>سید محمدعلیچوپانکاره عباسعلیمیرشفیعی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-18:30 مکان: دانشکده برق (کارگاه برق) کارگاه برق</t>
@@ -298,7 +298,7 @@
     <t>نقشه کشی صنعتی برق 1</t>
   </si>
   <si>
-    <t>یوسفی لادمخی نعیم</t>
+    <t>نعیم یوسفی لادمخی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -319,7 +319,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>غلامی فرشاد</t>
+    <t>فرشاد غلامی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -334,7 +334,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>ملارمضانی نوید</t>
+    <t>نوید ملارمضانی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-13:00 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -349,7 +349,7 @@
     <t>آزمایشگاه الکترونیک1</t>
   </si>
   <si>
-    <t>حبیبی دهکا ژالهرونق ششکلانی نازلی</t>
+    <t>نازلی حبیبی دهکا ژالهرونق ششکلانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه الکترونیک 1</t>
@@ -364,7 +364,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>یزدان پناه وحیدرضاسلیمانی حسین</t>
+    <t>حسین یزدان پناه وحیدرضاسلیمانی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه الکترونیک 1</t>
@@ -391,7 +391,7 @@
     <t>42</t>
   </si>
   <si>
-    <t>یاوند حسنی جواد</t>
+    <t>جواد یاوند حسنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -409,7 +409,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>فریبرز جمشیدحبیبی دهکا ژاله</t>
+    <t>ژاله فریبرز جمشیدحبیبی دهکا</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -460,7 +460,7 @@
     <t>1211036_02</t>
   </si>
   <si>
-    <t>گنجه فر سهیل</t>
+    <t>سهیل گنجه فر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 216، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 216</t>
@@ -472,7 +472,7 @@
     <t>آزمایشگاه سیستمهای کنترل خطی</t>
   </si>
   <si>
-    <t>زارع خورمیزی علیرضا</t>
+    <t>علیرضا زارع خورمیزی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه سیستم کنترل خطی</t>
@@ -490,7 +490,7 @@
     <t>1211037_04</t>
   </si>
   <si>
-    <t>مختاری دزکی سینا</t>
+    <t>سینا مختاری دزکی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه سیستم کنترل خطی</t>
@@ -514,7 +514,7 @@
     <t>فیزیک الکترونیک</t>
   </si>
   <si>
-    <t>فریبرز جمشید</t>
+    <t>جمشید فریبرز</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 207، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 207</t>
@@ -529,7 +529,7 @@
     <t>الکترونیک 3</t>
   </si>
   <si>
-    <t>ابریشمی فر سید ادیب</t>
+    <t>سید ادیبابریشمی فر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -541,7 +541,7 @@
     <t>آزمایشگاه الکترونیک 3</t>
   </si>
   <si>
-    <t>حبیبی دهکا ژالهدل پسند مهتاب</t>
+    <t>مهتاب حبیبی دهکا ژالهدل پسند</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -559,7 +559,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>فریبرز جمشیددل پسند مهتاب</t>
+    <t>مهتاب فریبرز جمشیددل پسند</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  16:30-19:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه الترونیک 2 و 3</t>
@@ -574,7 +574,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>آیت اللهی احمد</t>
+    <t>احمد آیت اللهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -589,7 +589,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>فریبرز جمشیدزندبگله احمد</t>
+    <t>احمد فریبرز جمشیدزندبگله</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   17:30-19:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -604,7 +604,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>فریبرز جمشیدبیدوند کبری</t>
+    <t>کبری فریبرز جمشیدبیدوند</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار منطقی و تکنیک پالس</t>
@@ -616,7 +616,7 @@
     <t>اجزاء کامپیوتر</t>
   </si>
   <si>
-    <t>شاه حسینی هادی شهریار</t>
+    <t>شهریار شاه حسینی هادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202</t>
@@ -631,7 +631,7 @@
     <t>آزمایشگاه اجزاء کامپیوتر</t>
   </si>
   <si>
-    <t>حریه  سیدسجادقائمی نیا محمدحسین</t>
+    <t>نیا محمدحسینحریه سید سجادقائمی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه اجزاء و میکروپروسسور</t>
@@ -640,7 +640,7 @@
     <t>1211048_04</t>
   </si>
   <si>
-    <t>قائمی نیا محمدحسینجلیلیان خالقی حمیدرضا</t>
+    <t>حمیدرضا قائمی نیا محمدحسینجلیلیان خالقی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   16:30-19:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه اجزاء و میکروپروسسور</t>
@@ -655,7 +655,7 @@
     <t>48</t>
   </si>
   <si>
-    <t>موسوی میرکلائی سید محمدرضا</t>
+    <t>سید محمدرضاموسوی میرکلائی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -679,7 +679,7 @@
     <t>1211051_03</t>
   </si>
   <si>
-    <t>حریه  سیدسجاددل پسند مهتاب</t>
+    <t>پسند مهتابحریه سید سجاددل</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه اجزاء و میکروپروسسور</t>
@@ -697,7 +697,7 @@
     <t>آزمایشگاه کنترل صنعتی</t>
   </si>
   <si>
-    <t>شمقدری سعید</t>
+    <t>سعید شمقدری</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  15:30-18:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه کنترل صنعتی</t>
@@ -712,7 +712,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>جلیلیان علیرضا</t>
+    <t>علیرضا جلیلیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 306، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 306</t>
@@ -730,7 +730,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>خالقی غلامحسینپورمسگری مجیدمحمدی عبدالحسینمهرجو حسین</t>
+    <t>حسین خالقی غلامحسینپورمسگری مجیدمحمدی عبدالحسینمهرجو</t>
   </si>
   <si>
     <t>درس(ع): شنبه      07:00-10:00</t>
@@ -757,7 +757,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>صادقی نقندر ابراهیمپورمسگری مجیدشریفی صدیقهمحمدی عبدالحسین</t>
+    <t>عبدالحسین صادقی نقندر ابراهیمپورمسگری مجیدشریفی صدیقهمحمدی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00</t>
@@ -781,7 +781,7 @@
     <t>1211064_05</t>
   </si>
   <si>
-    <t>صادقی نقندر ابراهیمپورمسگری مجیدمحمدی عبدالحسینمهرجو حسین</t>
+    <t>حسین صادقی نقندر ابراهیمپورمسگری مجیدمحمدی عبدالحسینمهرجو</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   07:00-10:00</t>
@@ -802,7 +802,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>حکمتی ارسلان</t>
+    <t>ارسلان حکمتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214</t>
@@ -826,7 +826,7 @@
     <t>مدارهای الکتریکی 2</t>
   </si>
   <si>
-    <t>غفاری ابوذر</t>
+    <t>ابوذر غفاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -847,7 +847,7 @@
     <t>آزمایشگاه مدارهای الکتریکی و اندازه گیری</t>
   </si>
   <si>
-    <t>میری آشتیانی سیده نغمهفاطمی اردستانی اعظم السادات</t>
+    <t>اعظم الساداتمیری آشتیانی سید ه نغمهفاطمی اردستانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار و اندازه گیری</t>
@@ -859,7 +859,7 @@
     <t>1211068_05</t>
   </si>
   <si>
-    <t>جلیلیان خالقی حمیدرضافاطمی اردستانی اعظم السادات</t>
+    <t>السادات جلیلیان خالقی حمیدرضافاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مدار و اندازه گیری</t>
@@ -886,7 +886,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>کلانتر محسن</t>
+    <t>محسن کلانتر</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -898,7 +898,7 @@
     <t>1211070_02</t>
   </si>
   <si>
-    <t>عرب خابوری داود</t>
+    <t>داود عرب خابوری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -910,7 +910,7 @@
     <t>ماشین های الکتریکی 2</t>
   </si>
   <si>
-    <t>حیدری حسین</t>
+    <t>حسین حیدری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -931,7 +931,7 @@
     <t>الکترونیک صنعتی</t>
   </si>
   <si>
-    <t>شولایی عباس</t>
+    <t>عباس شولایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 202، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 202</t>
@@ -946,7 +946,7 @@
     <t>آزمایشگاه الکترونیک صنعتی</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضاسرتیپی محمد</t>
+    <t>محمد شکوهیان راد محمدرضاسرتیپی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه الکترونیک صنعتی</t>
@@ -961,7 +961,7 @@
     <t>آزمایشگاه ماشین الکتریکی2</t>
   </si>
   <si>
-    <t>اشعریون ابوالفضلمیرشفیعی سیدمحمدعلی</t>
+    <t>سید محمدعلیاشعریون ابوالفضلمیرشفیعی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -973,7 +973,7 @@
     <t>1211079_02</t>
   </si>
   <si>
-    <t>احمدیان تازه محله کاوه</t>
+    <t>کاوه احمدیان تازه محله</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -988,7 +988,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>شهرتاش سیدمحمد</t>
+    <t>سید محمدشهرتاش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201</t>
@@ -1018,7 +1018,7 @@
     <t>تاسیسات الکتریکی</t>
   </si>
   <si>
-    <t>احمدیان موسی</t>
+    <t>موسی احمدیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1036,7 +1036,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>ماکویی احمد</t>
+    <t>احمد ماکویی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -1051,7 +1051,7 @@
     <t>الکترومغناطیس</t>
   </si>
   <si>
-    <t>خلج امیرحسینی محمد</t>
+    <t>محمد خلج امیرحسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -1069,7 +1069,7 @@
     <t>1211128_03</t>
   </si>
   <si>
-    <t>میرشفیعی سیدمحمدعلیچنگیزیان محمودرضا</t>
+    <t>محمدعلیچنگیزیان محمودرضامیرشفیعی سید</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -1078,7 +1078,7 @@
     <t>1211128_04</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضاشیرازی حمیدرضا</t>
+    <t>حمیدرضا شکوهیان راد محمدرضاشیرازی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -1087,7 +1087,7 @@
     <t>1211128_05</t>
   </si>
   <si>
-    <t>چنگیزیان محمودرضامیرشفیعی سیدمحمدعلی</t>
+    <t>سید محمدعلیچنگیزیان محمودرضامیرشفیعی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -1096,7 +1096,7 @@
     <t>1211128_06</t>
   </si>
   <si>
-    <t>شیرازی حمیدرضاشکوهیان راد محمدرضا</t>
+    <t>محمدرضا شیرازی حمیدرضاشکوهیان راد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه ماشین 1 و 2</t>
@@ -1123,7 +1123,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>اسماعیل زاده سیدمجید</t>
+    <t>سید مجیداسماعیل زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -1135,7 +1135,7 @@
     <t>مدارهای مخابراتی</t>
   </si>
   <si>
-    <t>طیرانی مجید</t>
+    <t>مجید طیرانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 202</t>
@@ -1147,7 +1147,7 @@
     <t>آزمایشگاه مدارهای مخابراتی</t>
   </si>
   <si>
-    <t>فاطمی اردستانی اعظم السادات</t>
+    <t>السادات فاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مخابراتی و سیستم</t>
@@ -1159,7 +1159,7 @@
     <t>1211141_03</t>
   </si>
   <si>
-    <t>سلمانی سیامکفاطمی اردستانی اعظم السادات</t>
+    <t>السادات سلمانی سیامکفاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه مخابراتی و سیستم</t>
@@ -1177,7 +1177,7 @@
     <t>فیلترها و سنتزمدار</t>
   </si>
   <si>
-    <t>سلیمانی حسین</t>
+    <t>حسین سلیمانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -1198,7 +1198,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>چلداوی احمد</t>
+    <t>احمد چلداوی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 214</t>
@@ -1210,7 +1210,7 @@
     <t>مایکروویو 1</t>
   </si>
   <si>
-    <t>واجدسمیعی محمدهاشم</t>
+    <t>محمدهاشم واجدسمیعی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 203</t>
@@ -1222,7 +1222,7 @@
     <t>آزمایشگاه مایکروویو1</t>
   </si>
   <si>
-    <t>هاشمی نسب مریم ساداتفاطمی اردستانی اعظم السادات</t>
+    <t>السادات هاشمی نسب مریم ساداتفاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه مایکرویو</t>
@@ -1234,7 +1234,7 @@
     <t>اصول کنترل مدرن</t>
   </si>
   <si>
-    <t>بلندی حسین</t>
+    <t>حسین بلندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 206</t>
@@ -1249,7 +1249,7 @@
     <t>پردازش سیگنالهای دیجیتال</t>
   </si>
   <si>
-    <t>کهایی محمدحسین</t>
+    <t>محمدحسین کهایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 207، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 207</t>
@@ -1273,7 +1273,7 @@
     <t>اتوماسیون صنعتی در قدرت</t>
   </si>
   <si>
-    <t>عرب خابوری داودجلیلیان علیرضا</t>
+    <t>علیرضا عرب خابوری داودجلیلیان</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده برق (شهید چمران) کارگاه اتوماسیون صنعتی، درس(ع): چهارشنبه  15:30-18:30 مکان: دانشکده برق (شهید چمران) کارگاه اتوماسیون صنعتی</t>
@@ -1285,7 +1285,7 @@
     <t>1211274_02</t>
   </si>
   <si>
-    <t>جلیلیان علیرضاچوپانکاره عباسعلی</t>
+    <t>عباسعلی جلیلیان علیرضاچوپانکاره</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30، درس(ع): دوشنبه    15:30-18:30 مکان: دانشکده برق (شهید چمران) کارگاه اتوماسیون صنعتی</t>
@@ -1315,7 +1315,7 @@
     <t>آزمایشگاه مبانی مهندسی برق</t>
   </si>
   <si>
-    <t>توتونچیان فریدمحمودی تبار فرشید</t>
+    <t>فرشید توتونچیان فریدمحمودی تبار</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1327,7 +1327,7 @@
     <t>1211320_02</t>
   </si>
   <si>
-    <t>توتونچیان فریدچنگیزیان محمودرضا</t>
+    <t>محمودرضا توتونچیان فریدچنگیزیان</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1336,7 +1336,7 @@
     <t>1211320_03</t>
   </si>
   <si>
-    <t>توتونچیان فریدرحیمی پور بهبهانی میلاد</t>
+    <t>میلاد توتونچیان فریدرحیمی پور بهبهانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-15:30 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1348,7 +1348,7 @@
     <t>1211320_04</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضافاطمی اردستانی اعظم السادات</t>
+    <t>السادات شکوهیان راد محمدرضافاطمی اردستانی اعظم</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1363,7 +1363,7 @@
     <t>1211320_06</t>
   </si>
   <si>
-    <t>شکوهیان راد محمدرضا</t>
+    <t>محمدرضا شکوهیان راد</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-15:30 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1381,7 +1381,7 @@
     <t>1211320_08</t>
   </si>
   <si>
-    <t>سرتیپی محمد</t>
+    <t>محمد سرتیپی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1399,7 +1399,7 @@
     <t>1211320_10</t>
   </si>
   <si>
-    <t>شادنام زربیل محمدامیربنده معصومه</t>
+    <t>معصومه شادنام زربیل محمدامیربنده</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1408,7 +1408,7 @@
     <t>1211320_11</t>
   </si>
   <si>
-    <t>امیربنده معصومهشادنام زربیل محمد</t>
+    <t>محمد امیربنده معصومهشادنام زربیل</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-15:30 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1417,7 +1417,7 @@
     <t>1211320_12</t>
   </si>
   <si>
-    <t>چنگیزیان محمودرضاسرتیپی محمد</t>
+    <t>محمد چنگیزیان محمودرضاسرتیپی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1426,7 +1426,7 @@
     <t>1211320_13</t>
   </si>
   <si>
-    <t>محمودی تبار فرشیدسرتیپی محمد</t>
+    <t>محمد محمودی تبار فرشیدسرتیپی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1435,7 +1435,7 @@
     <t>1211320_14</t>
   </si>
   <si>
-    <t>چنگیزیان محمودرضامحمودی تبار فرشید</t>
+    <t>فرشید چنگیزیان محمودرضامحمودی تبار</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-15:30 مکان: دانشکده برق (کارگاه برق) مبانی مهندسی برق و کارگاه برق</t>
@@ -1453,7 +1453,7 @@
     <t>1211324_02</t>
   </si>
   <si>
-    <t>کرمی محمدعظیم</t>
+    <t>محمدعظیم کرمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 212</t>
@@ -1486,7 +1486,7 @@
     <t>38</t>
   </si>
   <si>
-    <t>حدادی فرزان</t>
+    <t>فرزان حدادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 205</t>
@@ -1495,7 +1495,7 @@
     <t>1211326_03</t>
   </si>
   <si>
-    <t>فرهمند شاهرخ</t>
+    <t>شاهرخ فرهمند</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 204</t>
@@ -1510,7 +1510,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>رضوی زاده سید محمد</t>
+    <t>سید محمدرضوی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1525,7 +1525,7 @@
     <t>حفاظت شبکه های قدرت</t>
   </si>
   <si>
-    <t>جمالی صادق</t>
+    <t>صادق جمالی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201، درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 201</t>
@@ -1540,7 +1540,7 @@
     <t>اصول اندازه گیری در مدارهای الکتریکی</t>
   </si>
   <si>
-    <t>غلامی احمداحمدیان موسیجلیلیان علیرضافرحناکیان محمد علیفریبرز جمشید</t>
+    <t>جمشید غلامی احمداحمدیان موسیجلیلیان علیرضافرحناکیان محمد علیفریبرز</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 211</t>
@@ -1552,7 +1552,7 @@
     <t>آزمایشگاه مخابرات دیجیتال</t>
   </si>
   <si>
-    <t>فلاحتی ابوالفضل</t>
+    <t>ابوالفضل فلاحتی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-13:00 مکان: دانشکده برق (شهید چمران) آزمایشگاه IDSP</t>
@@ -1564,7 +1564,7 @@
     <t>آزمایشگاه پردازش سیگنالهای دیجیتال</t>
   </si>
   <si>
-    <t>فلاحتی ابوالفضلقربانی کوثر</t>
+    <t>کوثر فلاحتی ابوالفضلقربانی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30 مکان: دانشکده برق (شهید چمران) آزمایشگاه IDSP</t>
@@ -1579,7 +1579,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>نظام الحسینی عزآبادی سیدعلیرضا</t>
+    <t>سید علیرضانظام الحسینی عزآبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 205، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 205</t>
@@ -1606,7 +1606,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>طلائی محمد رضا</t>
+    <t>رضا طلائی محمد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1621,7 +1621,7 @@
     <t>مکانیک سیالات</t>
   </si>
   <si>
-    <t>نصر اصغر</t>
+    <t>اصغر نصر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -1648,7 +1648,7 @@
     <t>کارگاه تخصصی واگن</t>
   </si>
   <si>
-    <t>شادفر مراد</t>
+    <t>مراد شادفر</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-17:30 مکان: دانشکده راه آهن شهریار</t>
@@ -1678,7 +1678,7 @@
     <t>طراحی سازه واگن و لکوموتیو</t>
   </si>
   <si>
-    <t>باقری وحیدرضا</t>
+    <t>وحیدرضا باقری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید چمران</t>
@@ -1693,7 +1693,7 @@
     <t>دینامیک حرکت قطار</t>
   </si>
   <si>
-    <t>ملاطفی حبیب اله</t>
+    <t>اله ملاطفی حبیب</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -1708,7 +1708,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>اوحدی اصفهانی امین</t>
+    <t>امین اوحدی اصفهانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده راه آهن کلاس خوارزمی، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1726,7 +1726,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>رضوانی بابلی محمدعلی</t>
+    <t>محمدعلی رضوانی بابلی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1741,7 +1741,7 @@
     <t>آزمایشگاه دینامیک و ارتعاشات</t>
   </si>
   <si>
-    <t>حسینخانی علی</t>
+    <t>علی حسینخانی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    15:30-17:30</t>
@@ -1759,7 +1759,7 @@
     <t>علایم و ارتباطات الکتریکی 2</t>
   </si>
   <si>
-    <t>صندیدزاده محمدعلی</t>
+    <t>محمدعلی صندیدزاده</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -1774,7 +1774,7 @@
     <t>علایم و ارتباطات الکتریکی1</t>
   </si>
   <si>
-    <t>میرآبادی احمد</t>
+    <t>احمد میرآبادی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1786,7 +1786,7 @@
     <t>1311055_02</t>
   </si>
   <si>
-    <t>قربانی واقعی بهمن</t>
+    <t>بهمن قربانی واقعی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -1801,7 +1801,7 @@
     <t>تقاضا در حمل و نقل</t>
   </si>
   <si>
-    <t>ایلاتی رضا</t>
+    <t>رضا ایلاتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -1816,7 +1816,7 @@
     <t>ایمنی سیر و حرکت</t>
   </si>
   <si>
-    <t>خادم ثامنی ملودیمحمدحسنی رضا</t>
+    <t>رضا خادم ثامنی ملودیمحمدحسنی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -1831,7 +1831,7 @@
     <t>نقشه کشی صنعتی 2</t>
   </si>
   <si>
-    <t>ایمانی امین</t>
+    <t>امین ایمانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-15:30</t>
@@ -1846,7 +1846,7 @@
     <t>اقتصاد عمومی</t>
   </si>
   <si>
-    <t>احدی حمیدرضا</t>
+    <t>حمیدرضا احدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1861,7 +1861,7 @@
     <t>بررسی فنی و اقتصادی انتخاب مسیر</t>
   </si>
   <si>
-    <t>گلشن خواص رضا</t>
+    <t>رضا گلشن خواص</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -1876,7 +1876,7 @@
     <t>مبانی مهندسی خط</t>
   </si>
   <si>
-    <t>مسیبی سیدعلی</t>
+    <t>سید علیمسیبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1894,7 +1894,7 @@
     <t>نقشه برداری و عملیات</t>
   </si>
   <si>
-    <t>جاویدانه علیمبینی کیا قاسم</t>
+    <t>قاسم جاویدانه علیمبینی کیا</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00 مکان: دانشکده راه آهن کلاس سعدی، درس(ع): چهارشنبه  09:00-12:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -1909,7 +1909,7 @@
     <t>سازه های بتن آرمه</t>
   </si>
   <si>
-    <t>طلوع کیان علیرضا</t>
+    <t>علیرضا طلوع کیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن شهریار، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن شهریار</t>
@@ -1924,7 +1924,7 @@
     <t>طراحی سازه های فولادی</t>
   </si>
   <si>
-    <t>مساح سعیدرضا</t>
+    <t>سعیدرضا مساح</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید متوسلیان، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید متوسلیان</t>
@@ -1942,7 +1942,7 @@
     <t>مکانیک سنگ</t>
   </si>
   <si>
-    <t>کرمی حمیدرضا</t>
+    <t>حمیدرضا کرمی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -1957,7 +1957,7 @@
     <t>اصول بهره برداری راه آهن</t>
   </si>
   <si>
-    <t>خادم ثامنی ملودی</t>
+    <t>ملودی خادم ثامنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -1972,7 +1972,7 @@
     <t>ساخت و اجرای خطوط</t>
   </si>
   <si>
-    <t>ذاکری سردرودی جبارعلیمسیبی سیدعلی</t>
+    <t>سید علیذاکری سردرودی جبارعلیمسیبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -1987,7 +1987,7 @@
     <t>زیر سازی مسیر</t>
   </si>
   <si>
-    <t>اسمعیلی مرتضی</t>
+    <t>مرتضی اسمعیلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -2002,7 +2002,7 @@
     <t>طراحی مسیر و پروژه</t>
   </si>
   <si>
-    <t>قهرمانی حسین</t>
+    <t>حسین قهرمانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید متوسلیان، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید متوسلیان</t>
@@ -2029,7 +2029,7 @@
     <t>روسازی راه آهن 2</t>
   </si>
   <si>
-    <t>حیدری نوقابی حمیدرضا</t>
+    <t>حمیدرضا حیدری نوقابی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس سعدی، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -2044,7 +2044,7 @@
     <t>نگهداری خطوط</t>
   </si>
   <si>
-    <t>نصر آزادانی سیدمسعود</t>
+    <t>سید مسعودنصر آزادانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده راه آهن کلاس خوارزمی، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -2059,7 +2059,7 @@
     <t>نقشه برداری مسیر وعملیات</t>
   </si>
   <si>
-    <t>آفری علیرضامبینی کیا قاسم</t>
+    <t>قاسم آفری علیرضامبینی کیا</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-14:30 مکان: دانشکده راه آهن خیام، درس(ع): چهارشنبه  14:30-17:30 مکان: دانشکده راه آهن خیام</t>
@@ -2074,7 +2074,7 @@
     <t>پلهای راه آهن 1</t>
   </si>
   <si>
-    <t>عطایی شروان</t>
+    <t>شروان عطایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید همت، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -2086,7 +2086,7 @@
     <t>پروژه پلهای راه آهن</t>
   </si>
   <si>
-    <t>محمدزاده سعید</t>
+    <t>سعید محمدزاده</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن شهریار</t>
@@ -2104,7 +2104,7 @@
     <t>تونل سازی</t>
   </si>
   <si>
-    <t>قارونی نیک مرتضی</t>
+    <t>مرتضی قارونی نیک</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2131,7 +2131,7 @@
     <t>مدیریت کیفیت</t>
   </si>
   <si>
-    <t>باقری مرتضی</t>
+    <t>مرتضی باقری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2167,7 +2167,7 @@
     <t>آزمایشگاه ترمودینامیک و انتقال حرارت</t>
   </si>
   <si>
-    <t>قشقائی نژاد پیمان</t>
+    <t>پیمان قشقائی نژاد</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00</t>
@@ -2182,7 +2182,7 @@
     <t>1311137_02</t>
   </si>
   <si>
-    <t>صالحی صادق</t>
+    <t>صادق صالحی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00</t>
@@ -2197,7 +2197,7 @@
     <t>دینامیک</t>
   </si>
   <si>
-    <t>میرمحمدصادقی سیدجواد</t>
+    <t>سید جوادمیرمحمدصادقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -2212,7 +2212,7 @@
     <t>اقتصادمهندسی</t>
   </si>
   <si>
-    <t>احدی حمیدرضامحمدحسنی رضا</t>
+    <t>رضا احدی حمیدرضامحمدحسنی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -2227,7 +2227,7 @@
     <t>اصول حسابداری و هزینه یابی</t>
   </si>
   <si>
-    <t>خدابخش محمد</t>
+    <t>محمد خدابخش</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-17:30 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -2242,7 +2242,7 @@
     <t>تحلیل سیستمها</t>
   </si>
   <si>
-    <t>شریف موسوی سید مهدی</t>
+    <t>سید مهدیشریف موسوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -2257,7 +2257,7 @@
     <t>تحقیق در عملیات 2</t>
   </si>
   <si>
-    <t>پورسیدآقایی محسن</t>
+    <t>آقایی محسنپورسید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -2269,7 +2269,7 @@
     <t>مبانی مهندسی برق</t>
   </si>
   <si>
-    <t>موسوی گزافرودی سیدمحمد</t>
+    <t>سید محمدموسوی گزافرودی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن شهید صیاد شیرازی، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن شهید صیاد شیرازی</t>
@@ -2284,7 +2284,7 @@
     <t>ارزیابی کار و زمان</t>
   </si>
   <si>
-    <t>محمدی دولت آبادی حسین</t>
+    <t>حسین محمدی دولت آبادی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -2329,7 +2329,7 @@
     <t>هیدرولوژی مهندسی</t>
   </si>
   <si>
-    <t>حسین زاده مجید</t>
+    <t>مجید حسین زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس سعدی</t>
@@ -2344,7 +2344,7 @@
     <t>متره و برآورد پروژه</t>
   </si>
   <si>
-    <t>عدل پرور محمدرضا</t>
+    <t>محمدرضا عدل پرور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده راه آهن کلاس شهید متوسلیان</t>
@@ -2359,7 +2359,7 @@
     <t>آزمایشگاه تکنولوژی بتن</t>
   </si>
   <si>
-    <t>شمس محمد مهدی</t>
+    <t>مهدی شمس محمد</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/17  ساعت: 08:00-10:00</t>
@@ -2389,7 +2389,7 @@
     <t>آزمایشگاه مقاومت مصالح</t>
   </si>
   <si>
-    <t>فرهی فر سینا</t>
+    <t>سینا فرهی فر</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-15:30 مکان: دانشکده راه آهن -</t>
@@ -2446,7 +2446,7 @@
     <t>مقاومت مصالح 2</t>
   </si>
   <si>
-    <t>تورجی زاده حامی</t>
+    <t>حامی تورجی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -2461,7 +2461,7 @@
     <t>مبانی ماشینهای الکتریکی</t>
   </si>
   <si>
-    <t>فاضل سید سعید</t>
+    <t>سید سعیدفاضل</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -2476,7 +2476,7 @@
     <t>کنترل اتوماتیک</t>
   </si>
   <si>
-    <t>اسد روزبه</t>
+    <t>روزبه اسد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن شهید زین الدین، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن شهید زین الدین</t>
@@ -2491,7 +2491,7 @@
     <t>طراحی اجزاء 2</t>
   </si>
   <si>
-    <t>شهروی مجید</t>
+    <t>مجید شهروی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن کلاس شهید همت، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن کلاس شهید همت</t>
@@ -2506,7 +2506,7 @@
     <t>ارتعاشات مکانیکی</t>
   </si>
   <si>
-    <t>یونسیان داود</t>
+    <t>داود یونسیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده راه آهن کلاس شهید باکری</t>
@@ -2518,7 +2518,7 @@
     <t>کارگاه جوشکاری و ورقکاری</t>
   </si>
   <si>
-    <t>محمدی عبدالحسیناساتید گروه آموزشی</t>
+    <t>آموزشی محمدی عبدالحسیناساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): شنبه      14:00-17:00</t>
@@ -2533,7 +2533,7 @@
     <t>کارگاه ماشین ابزار</t>
   </si>
   <si>
-    <t>صادقی نقندر ابراهیمپورمسگری مجیدمهرجو حسین</t>
+    <t>حسین صادقی نقندر ابراهیمپورمسگری مجیدمهرجو</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  14:00-17:00</t>
@@ -2548,7 +2548,7 @@
     <t>آزمایشگاه مکانیک سیالات</t>
   </si>
   <si>
-    <t>حکیما بهروز</t>
+    <t>بهروز حکیما</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-17:30</t>
@@ -2560,7 +2560,7 @@
     <t>آمار مهندسی</t>
   </si>
   <si>
-    <t>احمدی رضا</t>
+    <t>رضا احمدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید بابایی، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده راه آهن کلاس شهید بابایی</t>
@@ -2572,7 +2572,7 @@
     <t>مهندسی فاکتورهای انسانی</t>
   </si>
   <si>
-    <t>صادقی نائینی حسن</t>
+    <t>حسن صادقی نائینی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-12:00 مکان: دانشکده راه آهن کلاس شهید چمران</t>
@@ -2587,7 +2587,7 @@
     <t>طراحی ایستگاههای ریلی و پروژه</t>
   </si>
   <si>
-    <t>نصر آزادانی سیدمسعودترکاشوند عباس</t>
+    <t>مسعودترکاشوند عباسنصر آزادانی سید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده راه آهن کلاس خوارزمی</t>
@@ -2605,7 +2605,7 @@
     <t>معادلات دیفرانسیل</t>
   </si>
   <si>
-    <t>مستقیم زهره</t>
+    <t>زهره مستقیم</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 206، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 206</t>
@@ -2617,7 +2617,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>قائمی محمد باقر</t>
+    <t>باقر قائمی محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 201، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 201</t>
@@ -2629,7 +2629,7 @@
     <t>59</t>
   </si>
   <si>
-    <t>آقاجانی اسداله</t>
+    <t>اسداله آقاجانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 202، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -2653,7 +2653,7 @@
     <t>1411087_51</t>
   </si>
   <si>
-    <t>نیک آزاد تورج</t>
+    <t>تورج نیک آزاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 201، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 201</t>
@@ -2665,7 +2665,7 @@
     <t>57</t>
   </si>
   <si>
-    <t>یاری غلامحسین</t>
+    <t>غلامحسین یاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 202، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -2674,7 +2674,7 @@
     <t>1411087_53</t>
   </si>
   <si>
-    <t>صادقی سجاد</t>
+    <t>سجاد صادقی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 202، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -2686,7 +2686,7 @@
     <t>زن</t>
   </si>
   <si>
-    <t>خرازی حسن</t>
+    <t>حسن خرازی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 202، درس(ت): سه شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 202</t>
@@ -2710,7 +2710,7 @@
     <t>58</t>
   </si>
   <si>
-    <t>مسگرانی حمید</t>
+    <t>حمید مسگرانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 203، درس(ت): سه شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 203</t>
@@ -2719,7 +2719,7 @@
     <t>1411087_58</t>
   </si>
   <si>
-    <t>پاریاب خلیل</t>
+    <t>خلیل پاریاب</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 202، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 202</t>
@@ -2737,7 +2737,7 @@
     <t>1411087_60</t>
   </si>
   <si>
-    <t>خاصی منوچهر</t>
+    <t>منوچهر خاصی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 205، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -2761,7 +2761,7 @@
     <t>1411088_75</t>
   </si>
   <si>
-    <t>فرنوش رحمان</t>
+    <t>رحمان فرنوش</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 204، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -2788,7 +2788,7 @@
     <t>ریاضیات مهندسی</t>
   </si>
   <si>
-    <t>هادیان دهکردی مسعود</t>
+    <t>مسعود هادیان دهکردی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 201، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 201</t>
@@ -2797,7 +2797,7 @@
     <t>1411089_62</t>
   </si>
   <si>
-    <t>گرشاسبی مرتضی</t>
+    <t>مرتضی گرشاسبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 102، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 102</t>
@@ -2806,7 +2806,7 @@
     <t>1411089_63</t>
   </si>
   <si>
-    <t>طاهری نرگس</t>
+    <t>نرگس طاهری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 102، درس(ت): سه شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 102</t>
@@ -2815,7 +2815,7 @@
     <t>1411089_64</t>
   </si>
   <si>
-    <t>فروغ احمدرضا</t>
+    <t>احمدرضا فروغ</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: علوم پایه 16-زیر زمین، درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه 16-زیر زمین</t>
@@ -2824,7 +2824,7 @@
     <t>1411089_65</t>
   </si>
   <si>
-    <t>کاظمی راد سیاوش</t>
+    <t>سیاوش کاظمی راد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 106، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 106</t>
@@ -2833,7 +2833,7 @@
     <t>1411089_66</t>
   </si>
   <si>
-    <t>تومانیان مگردیچ</t>
+    <t>مگردیچ تومانیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه 16-زیر زمین، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -2842,7 +2842,7 @@
     <t>1411089_67</t>
   </si>
   <si>
-    <t>فتاحی الهام</t>
+    <t>الهام فتاحی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 203، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 203</t>
@@ -2854,7 +2854,7 @@
     <t>ریاضی عمومی 1</t>
   </si>
   <si>
-    <t>حسینی پور سید محمد کاظم</t>
+    <t>محمد کاظمحسینی پور سید</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه 16-زیر زمین، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه 16-زیر زمین</t>
@@ -2866,7 +2866,7 @@
     <t>1411090_69</t>
   </si>
   <si>
-    <t>میرقدری عبدالرسول</t>
+    <t>عبدالرسول میرقدری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 204، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -2875,7 +2875,7 @@
     <t>1411090_70</t>
   </si>
   <si>
-    <t>سعادتی رضا</t>
+    <t>رضا سعادتی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 204، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 204</t>
@@ -2899,7 +2899,7 @@
     <t>ریاضی عمومی 2</t>
   </si>
   <si>
-    <t>نجفی خواه مهدی</t>
+    <t>مهدی نجفی خواه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 101، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2908,7 +2908,7 @@
     <t>1411092_32</t>
   </si>
   <si>
-    <t>مشهدی سمانه</t>
+    <t>سمانه مشهدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 101، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2917,7 +2917,7 @@
     <t>1411092_33</t>
   </si>
   <si>
-    <t>مصلح تهرانی علی رضا</t>
+    <t>رضا مصلح تهرانی علی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 101، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 101</t>
@@ -2950,7 +2950,7 @@
     <t>1411092_38</t>
   </si>
   <si>
-    <t>پارسا علی</t>
+    <t>علی پارسا</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 203، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 203</t>
@@ -2965,7 +2965,7 @@
     <t>1411092_41</t>
   </si>
   <si>
-    <t>یعقوبی فر محمد</t>
+    <t>محمد یعقوبی فر</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 205، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -2998,7 +2998,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>تند پور زهرا</t>
+    <t>زهرا تند پور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 102، درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 102</t>
@@ -3007,7 +3007,7 @@
     <t>1411092_85</t>
   </si>
   <si>
-    <t>بشارتی نازلی</t>
+    <t>نازلی بشارتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 3، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 3</t>
@@ -3058,7 +3058,7 @@
     <t>جبر خطی عددی</t>
   </si>
   <si>
-    <t>وحیدی جواد</t>
+    <t>جواد وحیدی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 208، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -3097,7 +3097,7 @@
     <t>محاسبات عددی</t>
   </si>
   <si>
-    <t>مولوی عربشاهی سیده محبوبه</t>
+    <t>ه محبوبهمولوی عربشاهی سید</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 206</t>
@@ -3106,7 +3106,7 @@
     <t>1411155_79</t>
   </si>
   <si>
-    <t>رجبی تنها معصومه</t>
+    <t>معصومه رجبی تنها</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 205</t>
@@ -3121,7 +3121,7 @@
     <t>1411155_81</t>
   </si>
   <si>
-    <t>دمیرچی جواد</t>
+    <t>جواد دمیرچی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-10:00 مکان: علوم پایه کلاس شماره 205</t>
@@ -3136,7 +3136,7 @@
     <t>1411155_83</t>
   </si>
   <si>
-    <t>پورانصاری زینب</t>
+    <t>زینب پورانصاری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -3145,7 +3145,7 @@
     <t>1411155_84</t>
   </si>
   <si>
-    <t>سیادت موسوی سیدمصطفی</t>
+    <t>سید مصطفیسیادت موسوی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -3184,7 +3184,7 @@
     <t>نظریه گراف و کاربردها</t>
   </si>
   <si>
-    <t>علائیان مهدی</t>
+    <t>مهدی علائیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 208، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 208</t>
@@ -3226,7 +3226,7 @@
     <t>برنامه سازی پیشرفته</t>
   </si>
   <si>
-    <t>علائیان محمدهادی</t>
+    <t>محمدهادی علائیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 208، درس(ت): سه شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 208</t>
@@ -3316,7 +3316,7 @@
     <t>1511033_01</t>
   </si>
   <si>
-    <t>صاحبی شاهم آبادی هادی</t>
+    <t>هادی صاحبی شاهم آبادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30، درس(ت): سه شنبه   13:30-15:30</t>
@@ -3331,7 +3331,7 @@
     <t>1511033_02</t>
   </si>
   <si>
-    <t>باقرپور مرتضی</t>
+    <t>مرتضی باقرپور</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی صنایع، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی صنایع، با ظرفیت 25، ثبت نام شده 31، مجاز برای مقطع کارشناسی، دانشکده مهندسی برق، گروه آموزشی واحد آموزش کارشناسی، با ظرفیت 5، ثبت نام شده 9، مجاز برای دانشکده ریاضی و علوم کامپیوتر، گروه آموزشی واحد آموزش کارشناسی، با ظرفیت 10، ثبت نام شده 9</t>
@@ -3340,7 +3340,7 @@
     <t>1511033_03</t>
   </si>
   <si>
-    <t>محمدپور عمران محمد</t>
+    <t>محمد محمدپور عمران</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30، درس(ت): دوشنبه    15:30-17:30</t>
@@ -3355,7 +3355,7 @@
     <t>اقتصاد عمومی 1</t>
   </si>
   <si>
-    <t>میرزامحمدی سعید</t>
+    <t>سعید میرزامحمدی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30</t>
@@ -3385,7 +3385,7 @@
     <t>1511048_01</t>
   </si>
   <si>
-    <t>محمدی عمران</t>
+    <t>عمران محمدی</t>
   </si>
   <si>
     <t>1511049_01</t>
@@ -3394,7 +3394,7 @@
     <t>آزمایشگاه اندازه گیری دقیق</t>
   </si>
   <si>
-    <t>ثقفی نیا مجتبی</t>
+    <t>مجتبی ثقفی نیا</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-11:00، درس(ع): سه شنبه   11:00-13:00</t>
@@ -3403,7 +3403,7 @@
     <t>1511050_01</t>
   </si>
   <si>
-    <t>قوسی روزبه</t>
+    <t>روزبه قوسی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/09  ساعت: 11:00-13:00</t>
@@ -3415,7 +3415,7 @@
     <t>طرح ریزی واحدهای صنعتی</t>
   </si>
   <si>
-    <t>شهانقی کامران</t>
+    <t>کامران شهانقی</t>
   </si>
   <si>
     <t>1511051_02</t>
@@ -3430,7 +3430,7 @@
     <t>برنامه ریزی و کنترل تولید و موجودی 1</t>
   </si>
   <si>
-    <t>مهدوی مزده محمد</t>
+    <t>محمد مهدوی مزده</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/08  ساعت: 08:30-10:00</t>
@@ -3442,13 +3442,13 @@
     <t>تحقیق در عملیات 1</t>
   </si>
   <si>
-    <t>برزین پور فرناز</t>
+    <t>فرناز برزین پور</t>
   </si>
   <si>
     <t>1511055_02</t>
   </si>
   <si>
-    <t>حسینی مطلق سیدمهدی</t>
+    <t>سید مهدیحسینی مطلق</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00، درس(ت): سه شنبه   08:00-10:00</t>
@@ -3457,7 +3457,7 @@
     <t>1511059_01</t>
   </si>
   <si>
-    <t>نورالسنا رسول</t>
+    <t>رسول نورالسنا</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00، درس(ت): دوشنبه    08:00-10:00</t>
@@ -3469,7 +3469,7 @@
     <t>تئوری احتمالات و کاربرد آن</t>
   </si>
   <si>
-    <t>تیموری ابراهیم</t>
+    <t>ابراهیم تیموری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00، درس(ت): دوشنبه    10:00-12:00</t>
@@ -3478,13 +3478,13 @@
     <t>1511061_01</t>
   </si>
   <si>
-    <t>حائری عبدالرحمن</t>
+    <t>عبدالرحمن حائری</t>
   </si>
   <si>
     <t>1511061_02</t>
   </si>
   <si>
-    <t>ایمانی دین محمد</t>
+    <t>محمد ایمانی دین</t>
   </si>
   <si>
     <t>1511062_01</t>
@@ -3493,7 +3493,7 @@
     <t>کارگاه ماشین افزار 1</t>
   </si>
   <si>
-    <t>خالقی غلامحسینشریفی صدیقهمهرجو حسین</t>
+    <t>حسین خالقی غلامحسینشریفی صدیقهمهرجو</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:00-10:00</t>
@@ -3508,7 +3508,7 @@
     <t>1511062_03</t>
   </si>
   <si>
-    <t>خالقی غلامحسینپورمسگری مجیدمهرجو حسین</t>
+    <t>حسین خالقی غلامحسینپورمسگری مجیدمهرجو</t>
   </si>
   <si>
     <t>1511064_01</t>
@@ -3517,7 +3517,7 @@
     <t>کارگاه جوش</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضامحمدی عبدالحسین</t>
+    <t>عبدالحسین محمدعلیها محمدرضامحمدی</t>
   </si>
   <si>
     <t>1511064_02</t>
@@ -3529,7 +3529,7 @@
     <t>1511064_04</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضاصالحی سید میعادمحمدی عبدالحسین</t>
+    <t>میعادمحمدی عبدالحسینمحمدعلیها محمدرضاصالحی سید</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00</t>
@@ -3541,7 +3541,7 @@
     <t>طراحی ایجاد صنایع</t>
   </si>
   <si>
-    <t>خالقی غلامحسین</t>
+    <t>غلامحسین خالقی</t>
   </si>
   <si>
     <t>1511069_01</t>
@@ -3556,7 +3556,7 @@
     <t>برنامه ریزی نگهداری و تعمیرات</t>
   </si>
   <si>
-    <t>معینی علیرضا</t>
+    <t>علیرضا معینی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/09  ساعت: 08:30-10:00</t>
@@ -3577,7 +3577,7 @@
     <t>1511091_01</t>
   </si>
   <si>
-    <t>پیشوایی میر سامان</t>
+    <t>سامان پیشوایی میر</t>
   </si>
   <si>
     <t>1511093_01</t>
@@ -3586,7 +3586,7 @@
     <t>سیستمهای اطلاعاتی مدیریت</t>
   </si>
   <si>
-    <t>رسولی محمدرضا</t>
+    <t>محمدرضا رسولی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/07  ساعت: 11:00-13:00</t>
@@ -3598,7 +3598,7 @@
     <t>اصول مدیریت و تئوری سازمان</t>
   </si>
   <si>
-    <t>جعفری مصطفی</t>
+    <t>مصطفی جعفری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00</t>
@@ -3613,13 +3613,13 @@
     <t>مونتاژ مکانیکی</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضا</t>
+    <t>محمدرضا محمدعلیها</t>
   </si>
   <si>
     <t>1511121_01</t>
   </si>
   <si>
-    <t>سجادی سیدجعفر</t>
+    <t>سید جعفرسجادی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/01  ساعت: 08:30-10:00</t>
@@ -3637,7 +3637,7 @@
     <t>علم مواد</t>
   </si>
   <si>
-    <t>صالحی مریم</t>
+    <t>مریم صالحی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/11  ساعت: 15:00-17:00</t>
@@ -3646,7 +3646,7 @@
     <t>1511126_02</t>
   </si>
   <si>
-    <t>جعفریان حمیدرضا</t>
+    <t>حمیدرضا جعفریان</t>
   </si>
   <si>
     <t>1511177_01</t>
@@ -3655,7 +3655,7 @@
     <t>روشهای تولید</t>
   </si>
   <si>
-    <t>شفیعا محمدعلی</t>
+    <t>محمدعلی شفیعا</t>
   </si>
   <si>
     <t>1511177_02</t>
@@ -3691,7 +3691,7 @@
     <t>جبر خطی</t>
   </si>
   <si>
-    <t>قنادپور سیدفرید</t>
+    <t>سید فریدقنادپور</t>
   </si>
   <si>
     <t>1511243_01</t>
@@ -3718,7 +3718,7 @@
     <t>مدیریت و کنترل پروژه</t>
   </si>
   <si>
-    <t>یعقوبی سعید</t>
+    <t>سعید یعقوبی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی صنایع، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی صنایع، با ظرفیت 13، ثبت نام شده 10، مجاز برای دانشکده مهندسی راه  آهن، گروه آموزشی واحد آموزش کارشناسی، با ظرفیت 17، ثبت نام شده 16</t>
@@ -3736,7 +3736,7 @@
     <t>نقشه کشی صنعتی</t>
   </si>
   <si>
-    <t>رمضان نیا غلامرضا</t>
+    <t>غلامرضا رمضان نیا</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-09:00، درس(ع): دوشنبه    09:00-12:00</t>
@@ -3760,7 +3760,7 @@
     <t>کارگاه تخصصی مهندسی صنایع</t>
   </si>
   <si>
-    <t>محمدعلیها محمدرضاقهرمانی درویش محمد محرممحمدی عبدالحسین</t>
+    <t>عبدالحسین محمدعلیها محمدرضاقهرمانی درویش محمد محرممحمدی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00</t>
@@ -3769,7 +3769,7 @@
     <t>1511278_02</t>
   </si>
   <si>
-    <t>رمضان نیا غلامرضاپورمسگری مجیدمهرجو حسین</t>
+    <t>حسین رمضان نیا غلامرضاپورمسگری مجیدمهرجو</t>
   </si>
   <si>
     <t>1511279_01</t>
@@ -3778,7 +3778,7 @@
     <t>کنترل عددی</t>
   </si>
   <si>
-    <t>شریفی صدیقهصادقی نقندر ابراهیم</t>
+    <t>ابراهیم شریفی صدیقهصادقی نقندر</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    14:00-17:00، درس(ع): شنبه      13:00-15:00</t>
@@ -3802,7 +3802,7 @@
     <t>آزمایشگاه فیزیک پایه 3</t>
   </si>
   <si>
-    <t>اکبری جعفرآبادی مرضیهافهامی سعیده</t>
+    <t>سعیده اکبری جعفرآبادی مرضیهافهامی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:30-09:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 3</t>
@@ -3829,7 +3829,7 @@
     <t>مکانیک تحلیلی 2</t>
   </si>
   <si>
-    <t>کاظمی شیخ شبانی آسیه السادات</t>
+    <t>السادات کاظمی شیخ شبانی آسیه</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104</t>
@@ -3841,7 +3841,7 @@
     <t>ریاضی فیزیک 2</t>
   </si>
   <si>
-    <t>فیض آبادی سیدادریس</t>
+    <t>سید ادریسفیض آبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 004</t>
@@ -3868,7 +3868,7 @@
     <t>آزمایشگاه الکترونیک 1</t>
   </si>
   <si>
-    <t>طاهرآبادی گل آذینشریفیان محمودرضا</t>
+    <t>محمودرضا طاهرآبادی گل آذینشریفیان</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  09:30-12:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه الکترونیک</t>
@@ -3880,7 +3880,7 @@
     <t>فیزیک حالت جامد1</t>
   </si>
   <si>
-    <t>امراللهی بیوکی رضوانه</t>
+    <t>رضوانه امراللهی بیوکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104</t>
@@ -3895,7 +3895,7 @@
     <t>فیزیک لایه های نازک و آزمایشگاه</t>
   </si>
   <si>
-    <t>زمانی میمیان محمد رضا</t>
+    <t>رضا زمانی میمیان محمد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) اتاق گفتگو، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) اتاق گفتگو</t>
@@ -3907,7 +3907,7 @@
     <t>اپتیک کاربردی</t>
   </si>
   <si>
-    <t>شایگان منش مهدی</t>
+    <t>مهدی شایگان منش</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005</t>
@@ -3916,7 +3916,7 @@
     <t>1611112_01</t>
   </si>
   <si>
-    <t>نمیرانیان افشین</t>
+    <t>افشین نمیرانیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 007</t>
@@ -3937,7 +3937,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>واحدی محمد</t>
+    <t>محمد واحدی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی کامپیوتر، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی برق،</t>
@@ -3949,7 +3949,7 @@
     <t>1611117_02</t>
   </si>
   <si>
-    <t>حاجی عبدالوهاب روح الله</t>
+    <t>الله حاجی عبدالوهاب روح</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 1، درس(ت): سه شنبه   08:00-10:00 مکان: علوم پایه کلاس شماره 1</t>
@@ -3976,7 +3976,7 @@
     <t>96</t>
   </si>
   <si>
-    <t>احمدخان کردبچه امیرحسین</t>
+    <t>امیرحسین احمدخان کردبچه</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی برق،</t>
@@ -3985,7 +3985,7 @@
     <t>1611117_05</t>
   </si>
   <si>
-    <t>زارع بابک</t>
+    <t>بابک زارع</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 1، درس(ت): سه شنبه   13:30-15:30 مکان: علوم پایه کلاس شماره 1</t>
@@ -4003,7 +4003,7 @@
     <t>101</t>
   </si>
   <si>
-    <t>جعفرفرد محمدرضا</t>
+    <t>محمدرضا جعفرفرد</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مکانیک،</t>
@@ -4024,7 +4024,7 @@
     <t>آزمایشگاه فیزیک پایه 1</t>
   </si>
   <si>
-    <t>کریمی نژاد فرزانهاسکندری ابوالفضل</t>
+    <t>ابوالفضل کریمی نژاد فرزانهاسکندری</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4036,7 +4036,7 @@
     <t>1611123_02</t>
   </si>
   <si>
-    <t>کریمی نژاد فرزانهعبادی حامد</t>
+    <t>حامد کریمی نژاد فرزانهعبادی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4054,7 +4054,7 @@
     <t>1611123_04</t>
   </si>
   <si>
-    <t>کشتمند راضیهاساتید گروه آموزشی</t>
+    <t>آموزشی کشتمند راضیهاساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4066,7 +4066,7 @@
     <t>1611123_05</t>
   </si>
   <si>
-    <t>اسکندری ابوالفضلاساتید گروه آموزشی</t>
+    <t>آموزشی اسکندری ابوالفضلاساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): شنبه      17:30-19:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4078,7 +4078,7 @@
     <t>1611123_06</t>
   </si>
   <si>
-    <t>رحمانی ایوریق نسیمبهرامیان ریحانه</t>
+    <t>ریحانه رحمانی ایوریق نسیمبهرامیان</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4102,7 +4102,7 @@
     <t>1611123_09</t>
   </si>
   <si>
-    <t>رحمانی ایوریق نسیمحدادنژاد زهرا</t>
+    <t>زهرا رحمانی ایوریق نسیمحدادنژاد</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4123,7 +4123,7 @@
     <t>1611123_11</t>
   </si>
   <si>
-    <t>اعظمی فرهاداسکندری ابوالفضل</t>
+    <t>ابوالفضل اعظمی فرهاداسکندری</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4159,7 +4159,7 @@
     <t>1611123_16</t>
   </si>
   <si>
-    <t>اعظمی فرهادتقی زاده رهقی نرجس</t>
+    <t>نرجس اعظمی فرهادتقی زاده رهقی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4168,7 +4168,7 @@
     <t>1611123_17</t>
   </si>
   <si>
-    <t>تقی زاده رهقی نرجساعظمی فرهاد</t>
+    <t>فرهاد تقی زاده رهقی نرجساعظمی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4183,7 +4183,7 @@
     <t>1611123_18</t>
   </si>
   <si>
-    <t>زمانی میمیان محمد رضاتقی زاده رهقی نرجس</t>
+    <t>نرجس زمانی میمیان محمد رضاتقی زاده رهقی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4192,7 +4192,7 @@
     <t>1611123_19</t>
   </si>
   <si>
-    <t>تقی زاده رهقی نرجسحدادنژاد زهرا</t>
+    <t>زهرا تقی زاده رهقی نرجسحدادنژاد</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4213,7 +4213,7 @@
     <t>1611123_21</t>
   </si>
   <si>
-    <t>پرتوی شبستری ناصراسکندری ابوالفضل</t>
+    <t>ابوالفضل پرتوی شبستری ناصراسکندری</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  07:30-09:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4234,7 +4234,7 @@
     <t>1611123_23</t>
   </si>
   <si>
-    <t>اسکندری ابوالفضلپرتوی شبستری ناصر</t>
+    <t>ناصر اسکندری ابوالفضلپرتوی شبستری</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 1</t>
@@ -4255,7 +4255,7 @@
     <t>آزمایشگاه فیزیک پایه 2</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهکشتمند راضیه</t>
+    <t>راضیه گل محمدی نژادی شعلهکشتمند</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4276,7 +4276,7 @@
     <t>1611124_03</t>
   </si>
   <si>
-    <t>یوسفی مسعودکشتمند راضیه</t>
+    <t>راضیه یوسفی مسعودکشتمند</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4285,7 +4285,7 @@
     <t>1611124_04</t>
   </si>
   <si>
-    <t>یوسفی مسعودمازندرانی حمیدرضا</t>
+    <t>حمیدرضا یوسفی مسعودمازندرانی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4294,7 +4294,7 @@
     <t>1611124_05</t>
   </si>
   <si>
-    <t>یوسفی مسعودحبیبی مریم</t>
+    <t>مریم یوسفی مسعودحبیبی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      17:30-19:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4303,7 +4303,7 @@
     <t>1611124_06</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهنظیفی گیلوان مینا</t>
+    <t>مینا گل محمدی نژادی شعلهنظیفی گیلوان</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4318,7 +4318,7 @@
     <t>1611124_08</t>
   </si>
   <si>
-    <t>نظیفی گیلوان میناکاظمی شریعت پناهی سیده فاطمه</t>
+    <t>ه فاطمهنظیفی گیلوان میناکاظمی شریعت پناهی سید</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4327,7 +4327,7 @@
     <t>1611124_09</t>
   </si>
   <si>
-    <t>کاظمی شریعت پناهی سیده فاطمهنظیفی گیلوان مینا</t>
+    <t>گیلوان میناکاظمی شریعت پناهی سید ه فاطمهنظیفی</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4342,7 +4342,7 @@
     <t>1611124_11</t>
   </si>
   <si>
-    <t>گل محمدی نژادی شعلهطاهرآبادی گل آذین</t>
+    <t>آذین گل محمدی نژادی شعلهطاهرآبادی گل</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4387,7 +4387,7 @@
     <t>1611124_19</t>
   </si>
   <si>
-    <t>یوسفی مسعودبروغنی آتنا</t>
+    <t>آتنا یوسفی مسعودبروغنی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4402,7 +4402,7 @@
     <t>1611124_21</t>
   </si>
   <si>
-    <t>کشتمند راضیهبروغنی آتنا</t>
+    <t>آتنا کشتمند راضیهبروغنی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4414,7 +4414,7 @@
     <t>1611124_22</t>
   </si>
   <si>
-    <t>بروغنی آتناکشتمند راضیه</t>
+    <t>راضیه بروغنی آتناکشتمند</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4423,7 +4423,7 @@
     <t>1611124_23</t>
   </si>
   <si>
-    <t>شریفیان محمودرضابروغنی آتنا</t>
+    <t>آتنا شریفیان محمودرضابروغنی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-15:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه فیزیک 2</t>
@@ -4450,7 +4450,7 @@
     <t>فیزیک پایه 4</t>
   </si>
   <si>
-    <t>شکری علی اصغر</t>
+    <t>اصغر شکری علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 005</t>
@@ -4468,7 +4468,7 @@
     <t>1611154_02</t>
   </si>
   <si>
-    <t>افهامی سعیده</t>
+    <t>سعیده افهامی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    17:30-19:30 مکان: دانشکده فیزیک(ساختمان شماره 1) آزمایشگاه مدرن</t>
@@ -4516,7 +4516,7 @@
     <t>فیزیک هسته ای وذرات بنیادی</t>
   </si>
   <si>
-    <t>غفاری قمی بیژن</t>
+    <t>بیژن غفاری قمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده فیزیک(ساختمان شماره 2) کلاس شماره 104</t>
@@ -4528,7 +4528,7 @@
     <t>فیزیک پایه 1</t>
   </si>
   <si>
-    <t>بابامرادی محسن</t>
+    <t>محسن بابامرادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 2، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 2</t>
@@ -4537,7 +4537,7 @@
     <t>1611202_03</t>
   </si>
   <si>
-    <t>چراغچی حسین</t>
+    <t>حسین چراغچی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 1، درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 1</t>
@@ -4552,7 +4552,7 @@
     <t>عملیات حرارتی</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسن</t>
+    <t>حسن ثقفیان لاریجانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4564,7 +4564,7 @@
     <t>1711016_01</t>
   </si>
   <si>
-    <t>توتونچیان فرید</t>
+    <t>فرید توتونچیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -4582,7 +4582,7 @@
     <t>خواص فیزیکی مواد 2</t>
   </si>
   <si>
-    <t>سرپولکی حسین</t>
+    <t>حسین سرپولکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -4594,7 +4594,7 @@
     <t>1711031_02</t>
   </si>
   <si>
-    <t>صالحی مریمکوه دار حمیدرضا</t>
+    <t>حمیدرضا صالحی مریمکوه دار</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): چهارشنبه  10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -4606,7 +4606,7 @@
     <t>1711031_04</t>
   </si>
   <si>
-    <t>رضوی سیدحسین</t>
+    <t>سید حسینرضوی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -4621,7 +4621,7 @@
     <t>اصول استخراج فلزات 1</t>
   </si>
   <si>
-    <t>سلطانیه منصورعادلی ماندانا</t>
+    <t>ماندانا سلطانیه منصورعادلی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): دوشنبه    15:30-17:30 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -4636,7 +4636,7 @@
     <t>اصول استخراج فلزات 2</t>
   </si>
   <si>
-    <t>ذاکری علیرضا</t>
+    <t>علیرضا ذاکری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 277</t>
@@ -4651,7 +4651,7 @@
     <t>انجماد فلزات</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعید</t>
+    <t>سعید قدرت نما شبستری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4666,7 +4666,7 @@
     <t>مواد دیر گداز</t>
   </si>
   <si>
-    <t>نقی زاده رحیم</t>
+    <t>رحیم نقی زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -4681,7 +4681,7 @@
     <t>تولید آهن</t>
   </si>
   <si>
-    <t>شیخ شاب بافقی محمد</t>
+    <t>محمد شیخ شاب بافقی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -4699,7 +4699,7 @@
     <t>متالورژی سطوح و پوشش ها</t>
   </si>
   <si>
-    <t>هاشمی نیاسری مسعود</t>
+    <t>مسعود هاشمی نیاسری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): چهارشنبه  11:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -4738,7 +4738,7 @@
     <t>کاربرد کامپیوتر درمهندسی مواد</t>
   </si>
   <si>
-    <t>قنبری هاجرغفاری سید امیر</t>
+    <t>سید امیرقنبری هاجرغفاری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 نیمه1 ت، درس(ت): سه شنبه   08:00-10:00 نیمه2 ت</t>
@@ -4756,7 +4756,7 @@
     <t>آزمایشگاه انجماد فلزات</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیر</t>
+    <t>عزیر قدرت نما شبستری سعیدشیخ علیزاده خانقاه</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   15:30-18:30</t>
@@ -4774,7 +4774,7 @@
     <t>آزمایشگاه خوردگی و پوشش دادن</t>
   </si>
   <si>
-    <t>هاشمی نیاسری مسعودرحیمی زهره</t>
+    <t>زهره هاشمی نیاسری مسعودرحیمی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-17:30</t>
@@ -4789,7 +4789,7 @@
     <t>آزمایشگاه عملیات حرارتی</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنعبودزاده رویس ندا</t>
+    <t>ندا ثقفیان لاریجانی حسنعبودزاده رویس</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:30</t>
@@ -4804,7 +4804,7 @@
     <t>1711089_02</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدعبودزاده رویس ندا</t>
+    <t>ندا قدرت نما شبستری سعیدعبودزاده رویس</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-15:30</t>
@@ -4819,7 +4819,7 @@
     <t>ریخته گری 2</t>
   </si>
   <si>
-    <t>بوترابی سیدمحمدعلی</t>
+    <t>سید محمدعلیبوترابی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -4831,7 +4831,7 @@
     <t>شیمی تجزیه و آزمایشگاه</t>
   </si>
   <si>
-    <t>اعلم الهدی سمیهرحیمی زهره</t>
+    <t>زهره اعلم الهدی سمیهرحیمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:00-13:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ع): شنبه      13:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -4843,7 +4843,7 @@
     <t>خواص مکانیکی مواد1</t>
   </si>
   <si>
-    <t>ملکی مهدی</t>
+    <t>مهدی ملکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): دوشنبه    10:00-11:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، حل تمرین(ت): دوشنبه    11:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4855,7 +4855,7 @@
     <t>1711100_02</t>
   </si>
   <si>
-    <t>عربی حسین</t>
+    <t>حسین عربی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): دوشنبه    10:00-11:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106، حل تمرین(ت): دوشنبه    11:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -4882,7 +4882,7 @@
     <t>شیمی فیزیک مواد</t>
   </si>
   <si>
-    <t>صمدانی مریم</t>
+    <t>مریم صمدانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): سه شنبه   13:30-14:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204، حل تمرین(ت): سه شنبه   14:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -4894,7 +4894,7 @@
     <t>1711104_02</t>
   </si>
   <si>
-    <t>مسعودپناه سیدمرتضی</t>
+    <t>سید مرتضیمسعودپناه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): سه شنبه   15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 432، حل تمرین(ت): سه شنبه   16:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -4909,7 +4909,7 @@
     <t>مبانی طراحی و اصول کار کوره های صنعتی</t>
   </si>
   <si>
-    <t>ابوطالبی محمدرضاعادلی ماندانا</t>
+    <t>ماندانا ابوطالبی محمدرضاعادلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): شنبه      13:30-15:30 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -4936,7 +4936,7 @@
     <t>متالورژی جوشکاری</t>
   </si>
   <si>
-    <t>گودرزی مسعودبوترابی سیدمحمدعلی</t>
+    <t>سید محمدعلیگودرزی مسعودبوترابی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): دوشنبه    08:00-09:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): شنبه      08:00-10:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): دوشنبه    08:00-09:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -4951,7 +4951,7 @@
     <t>آزمایشگاه ریخته گری 1</t>
   </si>
   <si>
-    <t>بوترابی سیدمحمدعلیشیخ علیزاده خانقاه عزیر</t>
+    <t>خانقاه عزیربوترابی سید محمدعلیشیخ علیزاده</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/20  ساعت: 10:30-12:00</t>
@@ -4966,7 +4966,7 @@
     <t>آزمایشگاه خواص مکانیکی مواد 1</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنسعادت فومنی سیروس</t>
+    <t>سیروس ثقفیان لاریجانی حسنسعادت فومنی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00</t>
@@ -4981,7 +4981,7 @@
     <t>1711137_03</t>
   </si>
   <si>
-    <t>ثقفیان لاریجانی حسنسعادت فومنی سیروسفولادی ماهانی ساغر</t>
+    <t>ساغر ثقفیان لاریجانی حسنسعادت فومنی سیروسفولادی ماهانی</t>
   </si>
   <si>
     <t>1711137_04</t>
@@ -4996,7 +4996,7 @@
     <t>آزمایشگاه شکل دادن فلزات</t>
   </si>
   <si>
-    <t>رضوی سیدحسینسعادت فومنی سیروس</t>
+    <t>فومنی سیروسرضوی سید حسینسعادت</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-18:00</t>
@@ -5020,7 +5020,7 @@
     <t>آزمایشگاه مواد اولیه سرامیک و فرآوری</t>
   </si>
   <si>
-    <t>نقی زاده رحیممسیحیان پور علی اکبر</t>
+    <t>اکبر نقی زاده رحیممسیحیان پور علی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد- سرامیک، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی مواد-سرامیک، ، مجاز برای مقطع کارشناسی ارشد، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش تحصیلات تکمیلی، رشته مهندسی مواد-سرامیک،</t>
@@ -5032,7 +5032,7 @@
     <t>ترمودینامیک مواد1</t>
   </si>
   <si>
-    <t>گودرزی مسعود</t>
+    <t>مسعود گودرزی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): دوشنبه    15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208، حل تمرین(ت): دوشنبه    16:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5053,7 +5053,7 @@
     <t>سینتیک مواد</t>
   </si>
   <si>
-    <t>قنبری هاجرملکی مهدی</t>
+    <t>مهدی قنبری هاجرملکی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 275، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 275</t>
@@ -5065,7 +5065,7 @@
     <t>1711156_02</t>
   </si>
   <si>
-    <t>ذاکری علیرضااسدرخت محمد</t>
+    <t>محمد ذاکری علیرضااسدرخت</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204، درس(ت): سه شنبه   15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204، حل تمرین(ت): سه شنبه   16:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -5080,7 +5080,7 @@
     <t>خواص حرارتی سرامیکها</t>
   </si>
   <si>
-    <t>جوادپور جعفر</t>
+    <t>جعفر جوادپور</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5095,7 +5095,7 @@
     <t>فرایند ساخت سرامیکها 1</t>
   </si>
   <si>
-    <t>افتخاری یکتا بیژن</t>
+    <t>بیژن افتخاری یکتا</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5107,7 +5107,7 @@
     <t>فرایند ساخت سرامیکها 2</t>
   </si>
   <si>
-    <t>غفاری سید امیر</t>
+    <t>سید امیرغفاری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 202</t>
@@ -5119,7 +5119,7 @@
     <t>خوردگی و اکسیداسیون</t>
   </si>
   <si>
-    <t>رستگاری سعید</t>
+    <t>سعید رستگاری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): چهارشنبه  15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5158,7 +5158,7 @@
     <t>آزمایشگاه فرایند ساخت سرامیکها 1</t>
   </si>
   <si>
-    <t>مسیحیان پور علی اکبر</t>
+    <t>اکبر مسیحیان پور علی</t>
   </si>
   <si>
     <t>1711206_01</t>
@@ -5167,7 +5167,7 @@
     <t>آزمایشگاه فرایند ساخت سرامیکها 2</t>
   </si>
   <si>
-    <t>غفاری سید امیرمسیحیان پور علی اکبر</t>
+    <t>علی اکبرغفاری سید امیرمسیحیان پور</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/19  ساعت: 10:30-12:00</t>
@@ -5176,7 +5176,7 @@
     <t>1711206_02</t>
   </si>
   <si>
-    <t>صمدانی مریممسیحیان پور علی اکبر</t>
+    <t>اکبر صمدانی مریممسیحیان پور علی</t>
   </si>
   <si>
     <t>1711219_01</t>
@@ -5185,7 +5185,7 @@
     <t>آزمایشگاه لعاب</t>
   </si>
   <si>
-    <t>افتخاری یکتا بیژنکرد مرضیه</t>
+    <t>مرضیه افتخاری یکتا بیژنکرد</t>
   </si>
   <si>
     <t>درس(ع): شنبه      10:00-12:00</t>
@@ -5200,7 +5200,7 @@
     <t>آزمایشگاه مواد دیر گداز</t>
   </si>
   <si>
-    <t>مسیحیان پور علی اکبرفرزانه فرشید</t>
+    <t>فرشید مسیحیان پور علی اکبرفرزانه</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/17  ساعت: 08:30-10:00</t>
@@ -5212,7 +5212,7 @@
     <t>آزمایشگاه شیشه</t>
   </si>
   <si>
-    <t>کرد مرضیه</t>
+    <t>مرضیه کرد</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-12:00</t>
@@ -5233,7 +5233,7 @@
     <t>1711281_02</t>
   </si>
   <si>
-    <t>دیواندری مهدی</t>
+    <t>مهدی دیواندری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -5248,7 +5248,7 @@
     <t>اقتصاد و مدیریت صنعتی</t>
   </si>
   <si>
-    <t>پالیزدار یحیی</t>
+    <t>یحیی پالیزدار</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 204</t>
@@ -5260,7 +5260,7 @@
     <t>1711353_01</t>
   </si>
   <si>
-    <t>شیخ علیزاده خانقاه عزیر</t>
+    <t>عزیر شیخ علیزاده خانقاه</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-11:00</t>
@@ -5296,7 +5296,7 @@
     <t>1711354_02</t>
   </si>
   <si>
-    <t>اکبرنیا محمدعلی</t>
+    <t>محمدعلی اکبرنیا</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-14:30 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): سه شنبه   14:30-17:30 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -5305,7 +5305,7 @@
     <t>1711354_03</t>
   </si>
   <si>
-    <t>سلیمی بنی میلاد</t>
+    <t>میلاد سلیمی بنی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-14:30 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): چهارشنبه  14:30-17:30 مکان: دانشکده مکانیک کلاس شماره 109</t>
@@ -5326,7 +5326,7 @@
     <t>تئوری پرسلان</t>
   </si>
   <si>
-    <t>رضایی حمیدرضا</t>
+    <t>حمیدرضا رضایی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده متالوژی و مواد کلاس شماره 431</t>
@@ -5356,7 +5356,7 @@
     <t>ایستایی</t>
   </si>
   <si>
-    <t>کوه دار حمیدرضا</t>
+    <t>حمیدرضا کوه دار</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5371,7 +5371,7 @@
     <t>1711374_03</t>
   </si>
   <si>
-    <t>محمدصادقی باقر</t>
+    <t>باقر محمدصادقی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5401,7 +5401,7 @@
     <t>1711376_02</t>
   </si>
   <si>
-    <t>اعلم الهدی سمیه</t>
+    <t>سمیه اعلم الهدی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ع): چهارشنبه  08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5419,7 +5419,7 @@
     <t>پدیده های انتقال</t>
   </si>
   <si>
-    <t>ابوطالبی محمدرضاسیدین سیدحسین</t>
+    <t>سید حسینابوطالبی محمدرضاسید ین</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   08:00-10:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ت): سه شنبه   08:00-10:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 206، حل تمرین(ت): یک شنبه   08:00-09:00 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5428,7 +5428,7 @@
     <t>1711382_02</t>
   </si>
   <si>
-    <t>سیدین سیدحسینهاشمی نیاسری مسعود</t>
+    <t>نیاسری مسعودسید ین سید حسینهاشمی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): سه شنبه   13:30-15:30 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 208، حل تمرین(ت): یک شنبه   13:30-14:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5440,7 +5440,7 @@
     <t>آزمایشگاه متالوگرافی و ریز ساختار مواد</t>
   </si>
   <si>
-    <t>ملکی مهدیعطایی علیرضا</t>
+    <t>علیرضا ملکی مهدیعطایی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00</t>
@@ -5455,7 +5455,7 @@
     <t>1711384_02</t>
   </si>
   <si>
-    <t>کوه دار حمیدرضاعطایی علیرضا</t>
+    <t>علیرضا کوه دار حمیدرضاعطایی</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی متالورژی-متالورژی صنعتی، ترم ورود از 3951 تا 3962، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی متالورژی-تولید و فرآوری مواد فلزی، ترم ورود از 3951 تا 3962، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، رشته مهندسی مواد و متالورژی-مهندسی مواد-طراحی مواد مهندسی، ترم ورود از 3951 تا 3962، ، مجاز برای مقطع کارشناسی، دانشکده مهندسی مواد و متالورژی، گروه آموزشی واحد آموزش کارشناسی، ترم ورود از 3971 تا 3972،</t>
@@ -5470,7 +5470,7 @@
     <t>1711384_04</t>
   </si>
   <si>
-    <t>کرد مرضیهعطایی علیرضا</t>
+    <t>علیرضا کرد مرضیهعطایی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-12:00</t>
@@ -5479,7 +5479,7 @@
     <t>1711384_05</t>
   </si>
   <si>
-    <t>عربی حسینشایان زاد جلالعطایی علیرضا</t>
+    <t>علیرضا عربی حسینشایان زاد جلالعطایی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-18:00</t>
@@ -5509,7 +5509,7 @@
     <t>کانه آرایی و آزمایشگاه</t>
   </si>
   <si>
-    <t>آقاجانی حسینرحیمی زهره</t>
+    <t>زهره آقاجانی حسینرحیمی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-10:30 مکان: دانشکده متالوژی و مواد کلاس شماره 206، درس(ع): سه شنبه   10:30-12:30 مکان: دانشکده متالوژی و مواد کلاس شماره 206</t>
@@ -5524,7 +5524,7 @@
     <t>اصول مهندسی پلیمرها</t>
   </si>
   <si>
-    <t>خاوندی علیرضا</t>
+    <t>علیرضا خاوندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): سه شنبه   17:30-18:30 مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5545,7 +5545,7 @@
     <t>آزمایشگاه انجماد و ریخته گری مواد</t>
   </si>
   <si>
-    <t>قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیرعبدی بجندی محسن</t>
+    <t>محسن قدرت نما شبستری سعیدشیخ علیزاده خانقاه عزیرعبدی بجندی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      15:30-18:30</t>
@@ -5557,7 +5557,7 @@
     <t>1711393_02</t>
   </si>
   <si>
-    <t>بوترابی سیدمحمدعلیخیرابی علیشیخ علیزاده خانقاه عزیر</t>
+    <t>خانقاه عزیربوترابی سید محمدعلیخیرابی علیشیخ علیزاده</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   10:00-12:30</t>
@@ -5593,7 +5593,7 @@
     <t>1711398_02</t>
   </si>
   <si>
-    <t>میرکاظمی سید محمد</t>
+    <t>سید محمدمیرکاظمی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5605,7 +5605,7 @@
     <t>آزمایشگاه روشهای نوین آنالیز مواد</t>
   </si>
   <si>
-    <t>صمدانی مریمناصحی گوگجه نرگس</t>
+    <t>نرگس صمدانی مریمناصحی گوگجه</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 274</t>
@@ -5617,7 +5617,7 @@
     <t>آزمایشگاه تولید فلزات1</t>
   </si>
   <si>
-    <t>سلطانیه منصورحسین صراف شایانشایان زاد جلال</t>
+    <t>جلال سلطانیه منصورحسین صراف شایانشایان زاد</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-15:30</t>
@@ -5629,7 +5629,7 @@
     <t>متالورژی فیزیکی چدن و فولاد</t>
   </si>
   <si>
-    <t>بوترابی سیدمحمدعلیجعفریان حمیدرضا</t>
+    <t>محمدعلیجعفریان حمیدرضابوترابی سید</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106، درس(ت): چهارشنبه  13:30-15:30 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 106</t>
@@ -5641,7 +5641,7 @@
     <t>متالورژی پودر</t>
   </si>
   <si>
-    <t>ریخته گر فرشید</t>
+    <t>فرشید ریخته گر</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    09:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208، درس(ت): چهارشنبه  08:00-10:00 مکان: دانشکده متالوژی و مواد کلاس شماره 208</t>
@@ -5665,7 +5665,7 @@
     <t>اصول تولید مواد مهندسی</t>
   </si>
   <si>
-    <t>عادلی ماندانا</t>
+    <t>ماندانا عادلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-16:30 مکان: دانشکده متالوژی و مواد کلاس شماره 432، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده متالوژی و مواد کلاس شماره 432</t>
@@ -5680,7 +5680,7 @@
     <t>هندسه کاربردی</t>
   </si>
   <si>
-    <t>موذن سجاد</t>
+    <t>سجاد موذن</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-16:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): شنبه      13:30-17:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): سه شنبه   16:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -5710,7 +5710,7 @@
     <t>درک و بیان محیط</t>
   </si>
   <si>
-    <t>موسوی سیدمحمدعلی</t>
+    <t>سید محمدعلیموسوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): یک شنبه   14:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -5728,7 +5728,7 @@
     <t>بیان معماری 1</t>
   </si>
   <si>
-    <t>علی نیای مطلق ایوب</t>
+    <t>ایوب علی نیای مطلق</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): یک شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -5746,7 +5746,7 @@
     <t>بیان معماری 2</t>
   </si>
   <si>
-    <t>کبودی مهدی</t>
+    <t>مهدی کبودی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): یک شنبه   14:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -5770,7 +5770,7 @@
     <t>هندسه مناظر و مرایا</t>
   </si>
   <si>
-    <t>کلینی ممقانی ناصرزرین قلمی کیهان</t>
+    <t>کیهان کلینی ممقانی ناصرزرین قلمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): یک شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -5782,7 +5782,7 @@
     <t>1811055_02</t>
   </si>
   <si>
-    <t>کلینی ممقانی ناصراساتید گروه آموزشی زرین قلمی کیهان</t>
+    <t>کیهان کلینی ممقانی ناصراساتید گروه آموزشی زرین قلمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -5797,7 +5797,7 @@
     <t>ریاضیات و آمار معماری</t>
   </si>
   <si>
-    <t>رضائی رضوان</t>
+    <t>رضوان رضائی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -5812,7 +5812,7 @@
     <t>انسان طبیعت معماری</t>
   </si>
   <si>
-    <t>رهبر مرتضی</t>
+    <t>مرتضی رهبر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 21، درس(ع): شنبه      14:30-16:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 21</t>
@@ -5827,7 +5827,7 @@
     <t>مقدمات طراحی معماری 1</t>
   </si>
   <si>
-    <t>ترکاشوند عباس</t>
+    <t>عباس ترکاشوند</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00، درس(ع): شنبه      08:00-12:00، درس(ع): چهارشنبه  09:00-12:00، درس(ع): چهارشنبه  13:30-18:30</t>
@@ -5842,7 +5842,7 @@
     <t>1811058_02</t>
   </si>
   <si>
-    <t>مهدیزاده سراج فاطمهرهبر مرتضی</t>
+    <t>مرتضی مهدیزاده سراج فاطمهرهبر</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): شنبه      08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): چهارشنبه  09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): چهارشنبه  13:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -5854,7 +5854,7 @@
     <t>مقدمات طراحی معماری 2</t>
   </si>
   <si>
-    <t>خاک زند مهدی</t>
+    <t>مهدی خاک زند</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): یک شنبه   09:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): یک شنبه   13:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): چهارشنبه  08:00-11:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -5872,7 +5872,7 @@
     <t>مبانی نظری معماری</t>
   </si>
   <si>
-    <t>نقره کار عبدالحمید</t>
+    <t>عبدالحمید نقره کار</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-16:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -5887,7 +5887,7 @@
     <t>برداشت از بناهای تاریخی</t>
   </si>
   <si>
-    <t>کاظم پور حمیدرضادهقانی تفتی محسنمعماریان غلامحسین</t>
+    <t>غلامحسین کاظم پور حمیدرضادهقانی تفتی محسنمعماریان</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): سه شنبه   13:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -5902,7 +5902,7 @@
     <t>آشنایی بامعماری اسلامی</t>
   </si>
   <si>
-    <t>معماریان غلامحسیندهقانی تفتی محسن</t>
+    <t>محسن معماریان غلامحسیندهقانی تفتی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    09:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): دوشنبه    07:30-09:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -5926,7 +5926,7 @@
     <t>آشنایی با معماری معاصر</t>
   </si>
   <si>
-    <t>حمزه نژاد مهدی</t>
+    <t>مهدی حمزه نژاد</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2</t>
@@ -5941,7 +5941,7 @@
     <t>نقشه برداری</t>
   </si>
   <si>
-    <t>نوبخت دودران شمسمبینی کیا قاسم</t>
+    <t>قاسم نوبخت دودران شمسمبینی کیا</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    16:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ع): دوشنبه    15:30-16:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): دوشنبه    17:00-19:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -5956,7 +5956,7 @@
     <t>تنظیم شرایط محیطی</t>
   </si>
   <si>
-    <t>صنایعیان هانیه</t>
+    <t>هانیه صنایعیان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2</t>
@@ -5968,7 +5968,7 @@
     <t>1811067_01</t>
   </si>
   <si>
-    <t>هدایتی محمد جعفر</t>
+    <t>جعفر هدایتی محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   16:30-18:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -5983,7 +5983,7 @@
     <t>تاسیسات مکانیکی</t>
   </si>
   <si>
-    <t>شهریاری مقدم غلامرضا</t>
+    <t>غلامرضا شهریاری مقدم</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -5995,7 +5995,7 @@
     <t>1811069_01</t>
   </si>
   <si>
-    <t>موسوی سیدحسین</t>
+    <t>سید حسینموسوی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6010,7 +6010,7 @@
     <t>مقاومت مصالح و سازه های فلزی</t>
   </si>
   <si>
-    <t>ظفرخواه الیار</t>
+    <t>الیار ظفرخواه</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  11:30-12:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ت): چهارشنبه  13:30-14:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6022,7 +6022,7 @@
     <t>سازه های بتنی</t>
   </si>
   <si>
-    <t>احمدی رسول</t>
+    <t>رسول احمدی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6037,7 +6037,7 @@
     <t>متره و برآورد</t>
   </si>
   <si>
-    <t>فاتحی حسین</t>
+    <t>حسین فاتحی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  14:00-15:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): چهارشنبه  15:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6052,7 +6052,7 @@
     <t>مدیریت و تشکیلات کارگاه</t>
   </si>
   <si>
-    <t>شورشی علیرضا</t>
+    <t>علیرضا شورشی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  08:00-09:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)، درس(ع): چهارشنبه  09:00-11:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -6064,7 +6064,7 @@
     <t>ساختمان 1</t>
   </si>
   <si>
-    <t>امامی سیدجوادعظمتی حمیدرضا</t>
+    <t>جوادعظمتی حمیدرضاامامی سید</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   17:30-19:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6076,7 +6076,7 @@
     <t>ساختمان 2 و گزارش کارگاه</t>
   </si>
   <si>
-    <t>عظمتی حمیدرضاامامی سیدجواد</t>
+    <t>سید جوادعظمتی حمیدرضاامامی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): سه شنبه   15:30-17:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6088,7 +6088,7 @@
     <t>روستا 1</t>
   </si>
   <si>
-    <t>حسینی سید باقرامامی سیدجوادامتعلی عباس</t>
+    <t>سیدجوادامتعلی عباسحسینی سید باقرامامی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  17:00-18:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): یک شنبه   08:00-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): چهارشنبه  18:00-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2</t>
@@ -6106,7 +6106,7 @@
     <t>روستا 2</t>
   </si>
   <si>
-    <t>حسینی سید باقرامامی سیدجوادامتعلی عباسملوندی محسن</t>
+    <t>عباسملوندی محسنحسینی سید باقرامامی سیدجوادامتعلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): شنبه      09:00-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): دوشنبه    17:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6118,7 +6118,7 @@
     <t>1811077_02</t>
   </si>
   <si>
-    <t>امامی سیدجوادامتعلی عباسحسینی سید باقر</t>
+    <t>سید باقرامامی سیدجوادامتعلی عباسحسینی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-09:00، درس(ع): شنبه      09:00-12:00، درس(ع): دوشنبه    17:30-19:30</t>
@@ -6133,7 +6133,7 @@
     <t>طراحی معماری 1</t>
   </si>
   <si>
-    <t>ترقی جاه محمدزرین قلمی کیهانیزدانفر سیدعباس آقا</t>
+    <t>عباس آقاترقی جاه محمدزرین قلمی کیهانیزدانفر سید</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): شنبه      13:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12، درس(ع): سه شنبه   14:30-17:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه آتلیه 12</t>
@@ -6145,7 +6145,7 @@
     <t>طراحی معماری 2</t>
   </si>
   <si>
-    <t>تقدیر سمانهمظفر فرهنگ</t>
+    <t>فرهنگ تقدیر سمانهمظفر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): شنبه      14:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2</t>
@@ -6157,7 +6157,7 @@
     <t>1811079_02</t>
   </si>
   <si>
-    <t>صنایعیان هانیهمظفر فرهنگ</t>
+    <t>فرهنگ صنایعیان هانیهمظفر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): شنبه      14:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -6169,7 +6169,7 @@
     <t>طراحی معماری 3</t>
   </si>
   <si>
-    <t>مردمی کندوانی کریم</t>
+    <t>کریم مردمی کندوانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 229 (آتلیه 303)، درس(ع): شنبه      14:30-18:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 229 (آتلیه 303)، درس(ع): سه شنبه   13:30-17:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 229 (آتلیه 303)</t>
@@ -6184,7 +6184,7 @@
     <t>1811080_03</t>
   </si>
   <si>
-    <t>علی آبادی محمد</t>
+    <t>محمد علی آبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 2 (کلاس 102)، درس(ع): شنبه      14:30-18:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 2 (کلاس 102)، درس(ع): سه شنبه   13:30-17:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 2 (کلاس 102)</t>
@@ -6196,7 +6196,7 @@
     <t>تحلیل فضاهای شهری</t>
   </si>
   <si>
-    <t>علی الحسابی مهران</t>
+    <t>مهران علی الحسابی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)، درس(ع): شنبه      10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) 3 (کلاس 103)</t>
@@ -6211,7 +6211,7 @@
     <t>آشنایی با مرمت ابنیه</t>
   </si>
   <si>
-    <t>محمدمرادی اصغرامیرکبیریان آتس سا</t>
+    <t>سا محمدمرادی اصغرامیرکبیریان آتس</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): دوشنبه    07:30-09:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4، درس(ع): دوشنبه    09:00-10:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 4</t>
@@ -6226,7 +6226,7 @@
     <t>طراحی معماری 4</t>
   </si>
   <si>
-    <t>پورسعید حمیدرضا</t>
+    <t>حمیدرضا پورسعید</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): شنبه      14:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3، درس(ع): چهارشنبه  08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 3</t>
@@ -6241,7 +6241,7 @@
     <t>1811084_02</t>
   </si>
   <si>
-    <t>غفوریان بهروز</t>
+    <t>بهروز غفوریان</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30، درس(ع): شنبه      14:30-18:30، درس(ع): چهارشنبه  08:00-12:00</t>
@@ -6253,7 +6253,7 @@
     <t>طراحی معماری 5</t>
   </si>
   <si>
-    <t>نورالدین مصطفی</t>
+    <t>مصطفی نورالدین</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): شنبه      08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1، درس(ع): سه شنبه   14:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 1</t>
@@ -6268,7 +6268,7 @@
     <t>1811085_02</t>
   </si>
   <si>
-    <t>غفوریان میترا</t>
+    <t>میترا غفوریان</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): شنبه      08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2، درس(ع): سه شنبه   14:30-18:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 2</t>
@@ -6283,7 +6283,7 @@
     <t>طراحی فنی</t>
   </si>
   <si>
-    <t>اخلاصی احمدشهریاری مقدم غلامرضاموسوی سیدحسین</t>
+    <t>سید حسیناخلاصی احمدشهریاری مقدم غلامرضاموسوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   11:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): یک شنبه   08:00-11:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): یک شنبه   13:30-14:30، درس(ع): یک شنبه   14:30-16:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -6307,7 +6307,7 @@
     <t>1811086_03</t>
   </si>
   <si>
-    <t>شهریاری مقدم غلامرضااخلاصی احمدزرین قلمی کیهانموسوی سیدحسین</t>
+    <t>سید حسینشهریاری مقدم غلامرضااخلاصی احمدزرین قلمی کیهانموسوی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   11:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204، درس(ع): یک شنبه   08:00-09:00، درس(ع): یک شنبه   09:00-11:00، درس(ع): یک شنبه   13:30-16:30</t>
@@ -6322,7 +6322,7 @@
     <t>هندسه 1</t>
   </si>
   <si>
-    <t>کلینی ممقانی ناصر</t>
+    <t>ناصر کلینی ممقانی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   16:30-17:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): سه شنبه   17:30-19:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -6346,7 +6346,7 @@
     <t>مبانی هنرهای تجسمی 2</t>
   </si>
   <si>
-    <t>مسدد سیدهاشمسراج زاهدی آرمیتا</t>
+    <t>زاهدی آرمیتامسدد سید هاشمسراج</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    11:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): دوشنبه    07:30-11:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -6367,7 +6367,7 @@
     <t>کارگاه طراحی پایه 2</t>
   </si>
   <si>
-    <t>یوسفی توماج</t>
+    <t>توماج یوسفی</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    18:00-19:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201، درس(ع): چهارشنبه  07:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 204</t>
@@ -6391,7 +6391,7 @@
     <t>عکاسی پایه 2</t>
   </si>
   <si>
-    <t>کریمی صارمی علیرضا</t>
+    <t>علیرضا کریمی صارمی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) آتلیه 202</t>
@@ -6427,7 +6427,7 @@
     <t>مبانی طراحی صنعتی 2</t>
   </si>
   <si>
-    <t>صفار دزفولی محسن</t>
+    <t>محسن صفار دزفولی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201، درس(ع): دوشنبه    10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 201</t>
@@ -6451,7 +6451,7 @@
     <t>مدلسازی 2</t>
   </si>
   <si>
-    <t>صادقی نائینی حسنملوندی محسن</t>
+    <t>محسن صادقی نائینی حسنملوندی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  09:00-10:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه طراحی صنعتی1، درس(ع): چهارشنبه  10:00-12:00 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کارگاه طراحی صنعتی1</t>
@@ -6532,7 +6532,7 @@
     <t>جامعه شناسی صنعتی</t>
   </si>
   <si>
-    <t>صفائیان محمد علی</t>
+    <t>علی صفائیان محمد</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 1 (کلاس 101)</t>
@@ -6544,7 +6544,7 @@
     <t>طراحی فنی2  -اجزاء ماشین</t>
   </si>
   <si>
-    <t>همایونی احمد</t>
+    <t>احمد همایونی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    16:30-17:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)، درس(ع): دوشنبه    17:30-19:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) 4 (کلاس 104)</t>
@@ -6589,7 +6589,7 @@
     <t>پروژه 6 طراحی صنعتی - حال و آینده</t>
   </si>
   <si>
-    <t>پورخورشیدی بهروزاساتید گروه آموزشی</t>
+    <t>آموزشی پورخورشیدی بهروزاساتید گروه</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   11:30-12:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203، درس(ع): سه شنبه   07:30-11:30 مکان: دانشکده معماری ساختمان شماره 1(قدیم) کلاس شماره 203</t>
@@ -6625,7 +6625,7 @@
     <t>1811322_01</t>
   </si>
   <si>
-    <t>میرقاسمی محمود</t>
+    <t>محمود میرقاسمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-14:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) سایت کامپیوتر، درس(ع): یک شنبه   14:30-16:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) سایت کامپیوتر</t>
@@ -6664,7 +6664,7 @@
     <t>مصالح ساختمانی</t>
   </si>
   <si>
-    <t>زرین قلمی کیهان</t>
+    <t>کیهان زرین قلمی</t>
   </si>
   <si>
     <t>درس(ت): چهارشنبه  14:00-15:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2، درس(ع): چهارشنبه  15:00-17:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2</t>
@@ -6679,7 +6679,7 @@
     <t>مبانی محیط زیست</t>
   </si>
   <si>
-    <t>ملوندی محسن</t>
+    <t>محسن ملوندی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2</t>
@@ -6709,7 +6709,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>صفی زاده میرسعید</t>
+    <t>میرسعید صفی زاده</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -6718,7 +6718,7 @@
     <t>1911032_02</t>
   </si>
   <si>
-    <t>دانشجو کامران</t>
+    <t>کامران دانشجو</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -6730,7 +6730,7 @@
     <t>مقاومت مصالح 1</t>
   </si>
   <si>
-    <t>آیت الهی مجیدرضا</t>
+    <t>مجیدرضا آیت الهی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 106، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 106</t>
@@ -6742,7 +6742,7 @@
     <t>طراحی اجزاء 1</t>
   </si>
   <si>
-    <t>اشرفی محمد جواد</t>
+    <t>جواد اشرفی محمد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -6772,7 +6772,7 @@
     <t>مکانیک مواد کامپوزیت</t>
   </si>
   <si>
-    <t>طاهری بهروز فتح اله</t>
+    <t>اله طاهری بهروز فتح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -6781,7 +6781,7 @@
     <t>1911075_01</t>
   </si>
   <si>
-    <t>بیگ زاده برهان</t>
+    <t>برهان بیگ زاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207</t>
@@ -6790,7 +6790,7 @@
     <t>1911075_02</t>
   </si>
   <si>
-    <t>منتظری قهجاورستانی مرتضی</t>
+    <t>مرتضی منتظری قهجاورستانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -6799,7 +6799,7 @@
     <t>1911080_01</t>
   </si>
   <si>
-    <t>خرمی شاد هادی</t>
+    <t>هادی خرمی شاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 207</t>
@@ -6808,7 +6808,7 @@
     <t>1911080_02</t>
   </si>
   <si>
-    <t>طالبی توتی روح الله</t>
+    <t>الله طالبی توتی روح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -6817,7 +6817,7 @@
     <t>1911083_01</t>
   </si>
   <si>
-    <t>رجبی مجید</t>
+    <t>مجید رجبی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -6829,7 +6829,7 @@
     <t>توربو ماشین</t>
   </si>
   <si>
-    <t>تحسینی امیرمهدی</t>
+    <t>امیرمهدی تحسینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 116، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -6838,7 +6838,7 @@
     <t>1911087_02</t>
   </si>
   <si>
-    <t>شجاعی فرد محمدحسن</t>
+    <t>محمدحسن شجاعی فرد</t>
   </si>
   <si>
     <t>1911095_01</t>
@@ -6847,7 +6847,7 @@
     <t>طراحی سیستمهای تبرید و سردخانه</t>
   </si>
   <si>
-    <t>صفاری نطنزی حمید</t>
+    <t>حمید صفاری نطنزی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -6859,7 +6859,7 @@
     <t>انتقال حرارت 1</t>
   </si>
   <si>
-    <t>بازدیدی طهرانی فرزاد</t>
+    <t>فرزاد بازدیدی طهرانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -6874,7 +6874,7 @@
     <t>کارگاه اتومکانیک</t>
   </si>
   <si>
-    <t>اسم خانی مسعود</t>
+    <t>مسعود اسم خانی</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/17  ساعت: 14:00-16:00</t>
@@ -6883,19 +6883,19 @@
     <t>1911104_02</t>
   </si>
   <si>
-    <t>اکبری حبیب الهطالبی توتی روح الله</t>
+    <t>الله اکبری حبیب الهطالبی توتی روح</t>
   </si>
   <si>
     <t>1911104_03</t>
   </si>
   <si>
-    <t>اکبری حبیب الههاشمی رامین</t>
+    <t>رامین اکبری حبیب الههاشمی</t>
   </si>
   <si>
     <t>1911104_04</t>
   </si>
   <si>
-    <t>یوسفی لادمخی نعیماساتید گروه آموزشی</t>
+    <t>آموزشی یوسفی لادمخی نعیماساتید گروه</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30</t>
@@ -6907,7 +6907,7 @@
     <t>آزمایشگاه علم مواد</t>
   </si>
   <si>
-    <t>شمسی میلاداساتید گروه آموزشی</t>
+    <t>آموزشی شمسی میلاداساتید گروه</t>
   </si>
   <si>
     <t>1911109_02</t>
@@ -6916,7 +6916,7 @@
     <t>1911109_03</t>
   </si>
   <si>
-    <t>کسائیان نائینی مهدیاساتید گروه آموزشی</t>
+    <t>آموزشی کسائیان نائینی مهدیاساتید گروه</t>
   </si>
   <si>
     <t>1911110_01</t>
@@ -6925,13 +6925,13 @@
     <t>آزمایشگاه ترمودینامیک</t>
   </si>
   <si>
-    <t>صالحی صادقاساتید گروه آموزشی</t>
+    <t>آموزشی صالحی صادقاساتید گروه</t>
   </si>
   <si>
     <t>1911110_02</t>
   </si>
   <si>
-    <t>قندهاریون سمانه</t>
+    <t>سمانه قندهاریون</t>
   </si>
   <si>
     <t>1911110_04</t>
@@ -6940,13 +6940,13 @@
     <t>1911110_05</t>
   </si>
   <si>
-    <t>قره قانی آیت</t>
+    <t>آیت قره قانی</t>
   </si>
   <si>
     <t>1911112_01</t>
   </si>
   <si>
-    <t>اخلاقی محمد</t>
+    <t>محمد اخلاقی</t>
   </si>
   <si>
     <t>تاریخ: 1399/03/18  ساعت: 11:00-13:00</t>
@@ -6958,13 +6958,13 @@
     <t>1911112_03</t>
   </si>
   <si>
-    <t>سیاوشی مجید</t>
+    <t>مجید سیاوشی</t>
   </si>
   <si>
     <t>1911112_04</t>
   </si>
   <si>
-    <t>مقیمی مهدی</t>
+    <t>مهدی مقیمی</t>
   </si>
   <si>
     <t>1911114_01</t>
@@ -6973,25 +6973,25 @@
     <t>آزمایشگاه دینامیک ماشین</t>
   </si>
   <si>
-    <t>حبیب نژاد کواریم علیرضااساتید گروه آموزشی</t>
+    <t>آموزشی حبیب نژاد کواریم علیرضااساتید گروه</t>
   </si>
   <si>
     <t>1911114_02</t>
   </si>
   <si>
-    <t>علی محمدی احساناساتید گروه آموزشی</t>
+    <t>آموزشی علی محمدی احساناساتید گروه</t>
   </si>
   <si>
     <t>1911114_03</t>
   </si>
   <si>
-    <t>نوحی حفظ آباد روزبهاساتید گروه آموزشی</t>
+    <t>آموزشی نوحی حفظ آباد روزبهاساتید گروه</t>
   </si>
   <si>
     <t>1911114_05</t>
   </si>
   <si>
-    <t>یزدانی شبنماساتید گروه آموزشی</t>
+    <t>آموزشی یزدانی شبنماساتید گروه</t>
   </si>
   <si>
     <t>1911129_01</t>
@@ -7000,7 +7000,7 @@
     <t>دینامیک ماشین</t>
   </si>
   <si>
-    <t>آسیایی ساسان</t>
+    <t>ساسان آسیایی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7009,7 +7009,7 @@
     <t>1911129_02</t>
   </si>
   <si>
-    <t>علیزاده منصور</t>
+    <t>منصور علیزاده</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 116، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 116</t>
@@ -7018,7 +7018,7 @@
     <t>1911129_03</t>
   </si>
   <si>
-    <t>شهبازی اغبلاغ محمد</t>
+    <t>محمد شهبازی اغبلاغ</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 110، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 110</t>
@@ -7030,7 +7030,7 @@
     <t>پلاستیسیته و تغییر شکل فلزات</t>
   </si>
   <si>
-    <t>هاشمی رامین</t>
+    <t>رامین هاشمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7039,7 +7039,7 @@
     <t>1911255_01</t>
   </si>
   <si>
-    <t>امیرخانی شهرکی عبدالله</t>
+    <t>عبدالله امیرخانی شهرکی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 110، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 110</t>
@@ -7057,7 +7057,7 @@
     <t>مبانی مهندسی برق 2</t>
   </si>
   <si>
-    <t>خسروی مهیار</t>
+    <t>مهیار خسروی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 205، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 205</t>
@@ -7072,7 +7072,7 @@
     <t>1911333_01</t>
   </si>
   <si>
-    <t>ریاحی محمد</t>
+    <t>محمد ریاحی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 115، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -7081,7 +7081,7 @@
     <t>1911333_02</t>
   </si>
   <si>
-    <t>صدیقی محمد</t>
+    <t>محمد صدیقی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7093,13 +7093,13 @@
     <t>1911361_03</t>
   </si>
   <si>
-    <t>ثمره موسوی سید سینااساتید گروه آموزشی</t>
+    <t>گروه آموزشیثمره موسوی سید سینااساتید</t>
   </si>
   <si>
     <t>1911361_04</t>
   </si>
   <si>
-    <t>فرهی فر سینااساتید گروه آموزشی</t>
+    <t>آموزشی فرهی فر سینااساتید گروه</t>
   </si>
   <si>
     <t>1911361_05</t>
@@ -7120,7 +7120,7 @@
     <t>1911363_01</t>
   </si>
   <si>
-    <t>هاشمی نژاد محمد</t>
+    <t>محمد هاشمی نژاد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 206، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 206</t>
@@ -7129,7 +7129,7 @@
     <t>1911364_01</t>
   </si>
   <si>
-    <t>حسینی هاشمی شاهرخ</t>
+    <t>شاهرخ حسینی هاشمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 206، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 206</t>
@@ -7138,7 +7138,7 @@
     <t>1911364_02</t>
   </si>
   <si>
-    <t>شکریه محمودمهرداد</t>
+    <t>محمودمهرداد شکریه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7162,7 +7162,7 @@
     <t>1911366_01</t>
   </si>
   <si>
-    <t>حسینعلی پور سیدمصطفی</t>
+    <t>سید مصطفیحسینعلی پور</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -7171,7 +7171,7 @@
     <t>1911366_02</t>
   </si>
   <si>
-    <t>قاسمی حجت</t>
+    <t>حجت قاسمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 106، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 106</t>
@@ -7189,7 +7189,7 @@
     <t>مکانیک سیالات 1</t>
   </si>
   <si>
-    <t>تقوی زنوز رضا</t>
+    <t>رضا تقوی زنوز</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7219,7 +7219,7 @@
     <t>1911370_01</t>
   </si>
   <si>
-    <t>کامران مریم</t>
+    <t>مریم کامران</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-17:30 مکان: دانشکده مکانیک کلاس نقشه کشی 2</t>
@@ -7228,7 +7228,7 @@
     <t>1911370_02</t>
   </si>
   <si>
-    <t>بهادری رباب</t>
+    <t>رباب بهادری</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-17:30 مکان: دانشکده مکانیک کلاس نقشه کشی 2</t>
@@ -7246,7 +7246,7 @@
     <t>سیستمهای اندازه گیری</t>
   </si>
   <si>
-    <t>احمدیان حمید</t>
+    <t>حمید احمدیان</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 115</t>
@@ -7258,7 +7258,7 @@
     <t>سوخت و احتراق</t>
   </si>
   <si>
-    <t>بیدآبادی مهدی</t>
+    <t>مهدی بیدآبادی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7276,7 +7276,7 @@
     <t>مقدمه ای بر اجزای محدود</t>
   </si>
   <si>
-    <t>معدولیت رضا</t>
+    <t>رضا معدولیت</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 208، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7309,7 +7309,7 @@
     <t>1911384_01</t>
   </si>
   <si>
-    <t>داودی بهنامصدیقی یداله</t>
+    <t>یداله داودی بهنامصدیقی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-18:30</t>
@@ -7327,7 +7327,7 @@
     <t>1911384_04</t>
   </si>
   <si>
-    <t>ملارمضانی نویدصدیقی یداله</t>
+    <t>یداله ملارمضانی نویدصدیقی</t>
   </si>
   <si>
     <t>1911384_05</t>
@@ -7339,7 +7339,7 @@
     <t>1911385_01</t>
   </si>
   <si>
-    <t>اکبری حبیب اله</t>
+    <t>اله اکبری حبیب</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 114</t>
@@ -7360,7 +7360,7 @@
     <t>کارآموزی 1</t>
   </si>
   <si>
-    <t>اساتید گروه آموزشی</t>
+    <t>آموزشی اساتید گروه</t>
   </si>
   <si>
     <t>1911388_01</t>
@@ -7381,7 +7381,7 @@
     <t>1911395_01</t>
   </si>
   <si>
-    <t>هاشمی رامیناکبری حبیب الهداودی بهنامعابدینی رضوان</t>
+    <t>رضوان هاشمی رامیناکبری حبیب الهداودی بهنامعابدینی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 4ه اول ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:30-17:30 4ه دوم ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:30-17:30 4ه سوم ت مکان: دانشکده مکانیک کلاس شماره 201، درس(ت): دوشنبه    15:30-17:30 4ه چهارم ت مکان: دانشکده مکانیک کلاس شماره 201</t>
@@ -7396,7 +7396,7 @@
     <t>1911396_02</t>
   </si>
   <si>
-    <t>مطلوبی سیدمصطفیصدیقی یداله</t>
+    <t>مصطفیصدیقی یدالهمطلوبی سید</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   16:30-19:30</t>
@@ -7405,7 +7405,7 @@
     <t>1911396_04</t>
   </si>
   <si>
-    <t>نصر غلامعلیصدیقی یداله</t>
+    <t>یداله نصر غلامعلیصدیقی</t>
   </si>
   <si>
     <t>1911397_01</t>
@@ -7438,7 +7438,7 @@
     <t>سیستمهای هیدرولیک و نیوماتیک</t>
   </si>
   <si>
-    <t>عابدینی رضوان</t>
+    <t>رضوان عابدینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده مکانیک کلاس شماره 208</t>
@@ -7465,7 +7465,7 @@
     <t>2011002_01</t>
   </si>
   <si>
-    <t>مقصودی عمید</t>
+    <t>عمید مقصودی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-16:30 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی، درس(ع): دوشنبه    16:30-19:30</t>
@@ -7480,7 +7480,7 @@
     <t>2011002_02</t>
   </si>
   <si>
-    <t>محمدزاده ثانی هاجر</t>
+    <t>هاجر محمدزاده ثانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-16:30 مکان: دانشکده مکانیک کلاس شماره 109، درس(ع): دوشنبه    16:30-19:30</t>
@@ -7495,7 +7495,7 @@
     <t>فرایندهای پالایش نفت</t>
   </si>
   <si>
-    <t>ثباتی محمدامین</t>
+    <t>محمدامین ثباتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7513,7 +7513,7 @@
     <t>فرایندهای پتروشیمی</t>
   </si>
   <si>
-    <t>کثیری بیدهندی نوراله</t>
+    <t>نوراله کثیری بیدهندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7528,7 +7528,7 @@
     <t>کارگاه نرم افزار مهندسی شیمی</t>
   </si>
   <si>
-    <t>عابدینی حامد</t>
+    <t>حامد عابدینی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  10:00-13:00 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی</t>
@@ -7558,7 +7558,7 @@
     <t>شیمی فیزیک مهندسی شیمی</t>
   </si>
   <si>
-    <t>جمشیدی مسعود</t>
+    <t>مسعود جمشیدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -7576,7 +7576,7 @@
     <t>ترمودینامیک مهندسی شیمی 1</t>
   </si>
   <si>
-    <t>شهریاری رضا</t>
+    <t>رضا شهریاری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-18:30 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7591,7 +7591,7 @@
     <t>ترمودینامیک مهندسی شیمی2</t>
   </si>
   <si>
-    <t>میری روح الدین</t>
+    <t>الدین میری روح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -7606,7 +7606,7 @@
     <t>2011019_02</t>
   </si>
   <si>
-    <t>عصاره مهدی</t>
+    <t>مهدی عصاره</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -7618,7 +7618,7 @@
     <t>فرایندهای مواد معدنی</t>
   </si>
   <si>
-    <t>اله وردی علی</t>
+    <t>علی اله وردی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7630,7 +7630,7 @@
     <t>زیست فناوری</t>
   </si>
   <si>
-    <t>حجازی پریسا</t>
+    <t>پریسا حجازی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7642,7 +7642,7 @@
     <t>2011031_01</t>
   </si>
   <si>
-    <t>هاشم آبادی سیدحسن</t>
+    <t>سید حسنهاشم آبادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -7660,7 +7660,7 @@
     <t>انتقال حرارت 2</t>
   </si>
   <si>
-    <t>رهبرکلیشمی احمد</t>
+    <t>احمد رهبرکلیشمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -7675,7 +7675,7 @@
     <t>موازنه انرژی و مواد</t>
   </si>
   <si>
-    <t>رضائی مهران</t>
+    <t>مهران رضائی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -7690,7 +7690,7 @@
     <t>2011033_02</t>
   </si>
   <si>
-    <t>وحیدی امید</t>
+    <t>امید وحیدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138</t>
@@ -7705,7 +7705,7 @@
     <t>عملیات واحد 1</t>
   </si>
   <si>
-    <t>همتی علیرضا</t>
+    <t>علیرضا همتی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -7723,7 +7723,7 @@
     <t>عملیات واحد 2</t>
   </si>
   <si>
-    <t>روشن ضمیر سوسن</t>
+    <t>سوسن روشن ضمیر</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -7741,7 +7741,7 @@
     <t>سینتیک و طرح راکتور</t>
   </si>
   <si>
-    <t>علوی املشی سیدمهدی</t>
+    <t>سید مهدیعلوی املشی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -7783,7 +7783,7 @@
     <t>کاربرد ریاضیات در مهندسی شیمی</t>
   </si>
   <si>
-    <t>مقبلی محمدرضا</t>
+    <t>محمدرضا مقبلی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -7801,7 +7801,7 @@
     <t>آزمایشگاه انتقال حرارت</t>
   </si>
   <si>
-    <t>رهبرکلیشمی احمدسعیدزاده سپیده</t>
+    <t>سپیده رهبرکلیشمی احمدسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:30-16:30 مکان: دانشکده مهندسی شیمی آزمایشگاه انتقال حرارت</t>
@@ -7813,7 +7813,7 @@
     <t>2011079_02</t>
   </si>
   <si>
-    <t>نوروزبیگی رضاسعیدزاده سپیده</t>
+    <t>سپیده نوروزبیگی رضاسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده مهندسی شیمی آزمایشگاه انتقال حرارت</t>
@@ -7825,7 +7825,7 @@
     <t>کارگاه نرم افزار مهندسی</t>
   </si>
   <si>
-    <t>قائمی احد</t>
+    <t>احد قائمی</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   15:30-18:30 مکان: دانشکده مهندسی شیمی کارگاه نرم افزار مهندسی</t>
@@ -7846,7 +7846,7 @@
     <t>آزمایشگاه علمیات واحد</t>
   </si>
   <si>
-    <t>همتی علیرضابیرانوند زهرا</t>
+    <t>زهرا همتی علیرضابیرانوند</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   13:30-16:30 مکان: دانشکده مهندسی شیمی آزمایشگاه عملیات واحد</t>
@@ -7864,7 +7864,7 @@
     <t>آزمایشگاه کنترل فرایندها</t>
   </si>
   <si>
-    <t>وحیدی امیدسعیدزاده سپیده</t>
+    <t>سپیده وحیدی امیدسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00 مکان: دانشکده مهندسی شیمی آزمایشگاه کنترل فرآیند</t>
@@ -7876,7 +7876,7 @@
     <t>2011108_02</t>
   </si>
   <si>
-    <t>صادقی محمدتقیسعیدزاده سپیده</t>
+    <t>سپیده صادقی محمدتقیسعیدزاده</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  13:30-16:30 مکان: دانشکده مهندسی شیمی آزمایشگاه کنترل فرآیند</t>
@@ -7891,7 +7891,7 @@
     <t>2011115_01</t>
   </si>
   <si>
-    <t>نوروزبیگی رضا</t>
+    <t>رضا نوروزبیگی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 138</t>
@@ -7909,7 +7909,7 @@
     <t>آزمایشگاه مکانیک سیالات 1</t>
   </si>
   <si>
-    <t>بازیاری امینبیرانوند زهرا</t>
+    <t>زهرا بازیاری امینبیرانوند</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده مهندسی شیمی آزمایشگاه مکانیک سیالات</t>
@@ -7927,7 +7927,7 @@
     <t>2011129_01</t>
   </si>
   <si>
-    <t>خان اف محمدحسن</t>
+    <t>محمدحسن خان اف</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7942,7 +7942,7 @@
     <t>2011129_02</t>
   </si>
   <si>
-    <t>فصیحی دستجردی محمد</t>
+    <t>محمد فصیحی دستجردی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7954,7 +7954,7 @@
     <t>2011192_02</t>
   </si>
   <si>
-    <t>موحدی راد سلمان</t>
+    <t>سلمان موحدی راد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 136</t>
@@ -7969,7 +7969,7 @@
     <t>مقدمه ای بر مهندسی مخازن</t>
   </si>
   <si>
-    <t>جهانگیری حمیدرضا</t>
+    <t>حمیدرضا جهانگیری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -7984,7 +7984,7 @@
     <t>کنترل فرایندها</t>
   </si>
   <si>
-    <t>نعیم پور فرشته</t>
+    <t>فرشته نعیم پور</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده مهندسی شیمی کلاس شماره 139</t>
@@ -8002,7 +8002,7 @@
     <t>مهندسی آب و فاضلاب</t>
   </si>
   <si>
-    <t>سعادت پور مطهرهحسنی  زنوزی مریم</t>
+    <t>مریم سعادت پور مطهرهحسنی زنوزی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -8038,7 +8038,7 @@
     <t>پی سازی</t>
   </si>
   <si>
-    <t>حشمتی رفسنجانی علی اکبر</t>
+    <t>اکبر حشمتی رفسنجانی علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 13، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 13</t>
@@ -8050,7 +8050,7 @@
     <t>2111035_02</t>
   </si>
   <si>
-    <t>سعیدی عزیزکندی علیرضا</t>
+    <t>علیرضا سعیدی عزیزکندی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9، درس(ت): سه شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -8059,7 +8059,7 @@
     <t>2111036_01</t>
   </si>
   <si>
-    <t>افندیزاده زرگری شهریار</t>
+    <t>شهریار افندیزاده زرگری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -8074,7 +8074,7 @@
     <t>تحلیل سازه ها 2</t>
   </si>
   <si>
-    <t>قادری پدرام</t>
+    <t>پدرام قادری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -8086,7 +8086,7 @@
     <t>نقشه برداری و عملیات 1</t>
   </si>
   <si>
-    <t>مجردی برات</t>
+    <t>برات مجردی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 13</t>
@@ -8104,7 +8104,7 @@
     <t>روشهای اجرایی ساختمان</t>
   </si>
   <si>
-    <t>میرولد سیدسجاد</t>
+    <t>سید سجادمیرولد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-16:30 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)، درس(ع): شنبه      16:30-18:30 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)</t>
@@ -8113,7 +8113,7 @@
     <t>2111093_02</t>
   </si>
   <si>
-    <t>شیرزادی جاوید علی اکبر</t>
+    <t>اکبر شیرزادی جاوید علی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-16:30 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)، درس(ع): یک شنبه   16:30-18:30 مکان: آزمایشگاه های عمران کارگاه ساختمان(خارج از دانشکده)</t>
@@ -8134,7 +8134,7 @@
     <t>زمین شناسی مهندسی</t>
   </si>
   <si>
-    <t>سعیدی عزیزکندی علیرضاحسن زاده شوئیلی هادی</t>
+    <t>هادی سعیدی عزیزکندی علیرضاحسن زاده شوئیلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -8149,7 +8149,7 @@
     <t>2111104_01</t>
   </si>
   <si>
-    <t>صابر ماهانی محسن</t>
+    <t>محسن صابر ماهانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 10، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 10</t>
@@ -8158,7 +8158,7 @@
     <t>2111104_02</t>
   </si>
   <si>
-    <t>کریم پور فرد مهران</t>
+    <t>مهران کریم پور فرد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 11، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 11</t>
@@ -8170,7 +8170,7 @@
     <t>هیدرولیک</t>
   </si>
   <si>
-    <t>جباری ابراهیم</t>
+    <t>ابراهیم جباری</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -8179,7 +8179,7 @@
     <t>2111107_01</t>
   </si>
   <si>
-    <t>سعادت پور مطهره</t>
+    <t>مطهره سعادت پور</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -8188,7 +8188,7 @@
     <t>2111107_02</t>
   </si>
   <si>
-    <t>ذهبیون باقر</t>
+    <t>باقر ذهبیون</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8212,7 +8212,7 @@
     <t>تحلیل سازه ها1</t>
   </si>
   <si>
-    <t>سیادت نژاد سیدسعید</t>
+    <t>سید سعیدسیادت نژاد</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -8221,7 +8221,7 @@
     <t>2111122_02</t>
   </si>
   <si>
-    <t>ایلچی قزاآن مجید</t>
+    <t>مجید ایلچی قزاآن</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8233,7 +8233,7 @@
     <t>بارگذاری</t>
   </si>
   <si>
-    <t>حبیب نژاد کورایم اصغر</t>
+    <t>اصغر حبیب نژاد کورایم</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8266,7 +8266,7 @@
     <t>2111126_02</t>
   </si>
   <si>
-    <t>قدرتی امیری غلامرضا</t>
+    <t>غلامرضا قدرتی امیری</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 8</t>
@@ -8287,7 +8287,7 @@
     <t>پروژه سازه های بتن آرمه</t>
   </si>
   <si>
-    <t>رئیسی دهکردی مرتضی</t>
+    <t>مرتضی رئیسی دهکردی</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8299,7 +8299,7 @@
     <t>پروژه راهسازی</t>
   </si>
   <si>
-    <t>کامبوزیا ندا</t>
+    <t>ندا کامبوزیا</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8317,7 +8317,7 @@
     <t>روسازی راه</t>
   </si>
   <si>
-    <t>عامری محمود</t>
+    <t>محمود عامری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): سه شنبه   15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8365,7 +8365,7 @@
     <t>2111153_01</t>
   </si>
   <si>
-    <t>زرعی چیان مازیار</t>
+    <t>مازیار زرعی چیان</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه بتن</t>
@@ -8401,7 +8401,7 @@
     <t>2111155_02</t>
   </si>
   <si>
-    <t>افضلی مهر حسین</t>
+    <t>حسین افضلی مهر</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه هیدرولیک</t>
@@ -8422,7 +8422,7 @@
     <t>2111194_01</t>
   </si>
   <si>
-    <t>خانزادی مصطفی</t>
+    <t>مصطفی خانزادی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      13:00-15:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران آزمایشگاه مقاومت مصالح</t>
@@ -8434,7 +8434,7 @@
     <t>اقتصاد مهندسی</t>
   </si>
   <si>
-    <t>علیزاده حسین</t>
+    <t>حسین علیزاده</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -8482,7 +8482,7 @@
     <t>2111230_02</t>
   </si>
   <si>
-    <t>بروجردیان وحید</t>
+    <t>وحید بروجردیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1، درس(ت): سه شنبه   10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 1</t>
@@ -8533,7 +8533,7 @@
     <t>2111241_02</t>
   </si>
   <si>
-    <t>روح الامینی حامد</t>
+    <t>حامد روح الامینی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -8554,7 +8554,7 @@
     <t>انرژی و توسعه پایدار</t>
   </si>
   <si>
-    <t>احمدی روح الله</t>
+    <t>الله احمدی روح</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3، درس(ت): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 3</t>
@@ -8587,7 +8587,7 @@
     <t>سازه های بنایی مقاوم در برابر زلزله</t>
   </si>
   <si>
-    <t>رجبی الهام</t>
+    <t>الهام رجبی</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   15:30-17:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 4</t>
@@ -8608,7 +8608,7 @@
     <t>روشهای اجرا گود و سازه نگهبان</t>
   </si>
   <si>
-    <t>بازیار محمدحسن</t>
+    <t>محمدحسن بازیار</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -8623,7 +8623,7 @@
     <t>مهندسی ایمنی راه</t>
   </si>
   <si>
-    <t>توکلی کاشانی علی</t>
+    <t>علی توکلی کاشانی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 9</t>
@@ -8635,7 +8635,7 @@
     <t>تکنولوژی بتن</t>
   </si>
   <si>
-    <t>فامیلی هرمز</t>
+    <t>هرمز فامیلی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -8653,7 +8653,7 @@
     <t>طراحی معماری و شهرسازی</t>
   </si>
   <si>
-    <t>خاک زند مهدیاسمعیلی کاظم</t>
+    <t>کاظم خاک زند مهدیاسمعیلی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 5</t>
@@ -8674,7 +8674,7 @@
     <t>مبانی کامپیوتروبرنامه سازی</t>
   </si>
   <si>
-    <t>ملکی مجد مرضیه</t>
+    <t>مرضیه ملکی مجد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 112، درس(ت): چهارشنبه  13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 112</t>
@@ -8689,7 +8689,7 @@
     <t>نظریه زبانها و ماشینها</t>
   </si>
   <si>
-    <t>انتظاری ملکی رضا</t>
+    <t>رضا انتظاری ملکی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 122-، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 122-</t>
@@ -8698,7 +8698,7 @@
     <t>2211019_02</t>
   </si>
   <si>
-    <t>رحمانی حسین</t>
+    <t>حسین رحمانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -8713,7 +8713,7 @@
     <t>2211025_02</t>
   </si>
   <si>
-    <t>موحدی زینب</t>
+    <t>زینب موحدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 120-، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 120-</t>
@@ -8722,7 +8722,7 @@
     <t>2211025_03</t>
   </si>
   <si>
-    <t>اعتمادی سید صالح</t>
+    <t>سید صالحاعتمادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 119-، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 119-</t>
@@ -8737,7 +8737,7 @@
     <t>معماری کامپیوتر</t>
   </si>
   <si>
-    <t>سریانی محسن</t>
+    <t>محسن سریانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 117، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 117</t>
@@ -8746,7 +8746,7 @@
     <t>2211026_02</t>
   </si>
   <si>
-    <t>بیت الهی حاکم</t>
+    <t>حاکم بیت الهی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -8758,7 +8758,7 @@
     <t>آزمایشگاه پایگاه داده ها</t>
   </si>
   <si>
-    <t>ترکاشون رضا</t>
+    <t>رضا ترکاشون</t>
   </si>
   <si>
     <t>2211027_02</t>
@@ -8770,7 +8770,7 @@
     <t>آزمایشگاه سیستم عامل</t>
   </si>
   <si>
-    <t>مرادی علمدارلو علی</t>
+    <t>علی مرادی علمدارلو</t>
   </si>
   <si>
     <t>درس(ع): چهارشنبه  08:00-10:00</t>
@@ -8806,13 +8806,13 @@
     <t>آزمایشگاه الکترونیک دیجیتال</t>
   </si>
   <si>
-    <t>ظهیرپور وحید</t>
+    <t>وحید ظهیرپور</t>
   </si>
   <si>
     <t>2211053_01</t>
   </si>
   <si>
-    <t>محمدی محمدرضا</t>
+    <t>محمدرضا محمدی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 121-، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 121-</t>
@@ -8824,7 +8824,7 @@
     <t>انتقال داده ها</t>
   </si>
   <si>
-    <t>اکبری ازیرانی احمد</t>
+    <t>احمد اکبری ازیرانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 117، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 117</t>
@@ -8833,7 +8833,7 @@
     <t>2211055_02</t>
   </si>
   <si>
-    <t>دیانت ابوالفضل</t>
+    <t>ابوالفضل دیانت</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 112، درس(ت): دوشنبه    10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 112</t>
@@ -8845,7 +8845,7 @@
     <t>شبکه های کامپیوتری</t>
   </si>
   <si>
-    <t>آنالویی مرتضی</t>
+    <t>مرتضی آنالویی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -8857,7 +8857,7 @@
     <t>آزمایشگاه شبکه های کامپیوتری</t>
   </si>
   <si>
-    <t>عزیزجلالی عباس</t>
+    <t>عباس عزیزجلالی</t>
   </si>
   <si>
     <t>2211087_02</t>
@@ -8872,7 +8872,7 @@
     <t>مهندسی نرم افزار</t>
   </si>
   <si>
-    <t>مینائی بهروز</t>
+    <t>بهروز مینائی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 117، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 117</t>
@@ -8884,7 +8884,7 @@
     <t>اصول طراحی  پایگاه داده ها</t>
   </si>
   <si>
-    <t>زارع پور عیسی</t>
+    <t>عیسی زارع پور</t>
   </si>
   <si>
     <t>درس(ت): شنبه      17:30-19:30 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): دوشنبه    17:30-19:30 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -8893,7 +8893,7 @@
     <t>2211108_04</t>
   </si>
   <si>
-    <t>کیوانپور محمدرضا</t>
+    <t>محمدرضا کیوانپور</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    07:30-10:00</t>
@@ -8905,7 +8905,7 @@
     <t>2211138_01</t>
   </si>
   <si>
-    <t>حسینی منزه امیرمهدی</t>
+    <t>امیرمهدی حسینی منزه</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 112، درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 112</t>
@@ -8959,7 +8959,7 @@
     <t>2211277_04</t>
   </si>
   <si>
-    <t>قاسمی فیض آبادی فریبرز</t>
+    <t>فریبرز قاسمی فیض آبادی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 5، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 5</t>
@@ -9016,7 +9016,7 @@
     <t>2211277_12</t>
   </si>
   <si>
-    <t>رفیعی آتانی طیبه</t>
+    <t>طیبه رفیعی آتانی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 146، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 146</t>
@@ -9067,7 +9067,7 @@
     <t>ریاضیات گسسته</t>
   </si>
   <si>
-    <t>حکمی وصال</t>
+    <t>وصال حکمی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -9085,7 +9085,7 @@
     <t>ساختمانهای داده</t>
   </si>
   <si>
-    <t>اشرفی پیامن نصرت علی</t>
+    <t>علی اشرفی پیامن نصرت</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 122-، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 122-</t>
@@ -9097,7 +9097,7 @@
     <t>روش پژوهش و ارائه</t>
   </si>
   <si>
-    <t>کبیری پیمان</t>
+    <t>پیمان کبیری</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده کامپیوتر کلاس شماره 117</t>
@@ -9115,7 +9115,7 @@
     <t>طراحی کامپیوتری سیستمهای دیجیتال</t>
   </si>
   <si>
-    <t>فلاحتی هاجر</t>
+    <t>هاجر فلاحتی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -9136,7 +9136,7 @@
     <t>هوش مصنوعی و سیستمهای خبره</t>
   </si>
   <si>
-    <t>پیله ور محمدطاهر</t>
+    <t>محمدطاهر پیله ور</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 122-، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 122-</t>
@@ -9148,7 +9148,7 @@
     <t>اصول طراحی کامپایلر</t>
   </si>
   <si>
-    <t>پارسا سعید</t>
+    <t>سعید پارسا</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 117، درس(ت): دوشنبه    08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 117</t>
@@ -9160,7 +9160,7 @@
     <t>آزمایشگاه ریز پردازنده</t>
   </si>
   <si>
-    <t>مشحون هاشم</t>
+    <t>هاشم مشحون</t>
   </si>
   <si>
     <t>2211303_03</t>
@@ -9193,7 +9193,7 @@
     <t>تحلیل و طراحی سیستمها</t>
   </si>
   <si>
-    <t>آشتیانی مهرداد</t>
+    <t>مهرداد آشتیانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 113، درس(ت): سه شنبه   08:00-10:00 مکان: دانشکده کامپیوتر کلاس شماره 113</t>
@@ -9205,7 +9205,7 @@
     <t>آزمون نرم افزار</t>
   </si>
   <si>
-    <t>عبداللهی ازگمی محمد</t>
+    <t>محمد عبداللهی ازگمی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 112، درس(ت): سه شنبه   10:00-12:00 مکان: دانشکده کامپیوتر کلاس شماره 112</t>
@@ -9217,7 +9217,7 @@
     <t>مبانی هوش محاسباتی</t>
   </si>
   <si>
-    <t>مزینی ناصر</t>
+    <t>ناصر مزینی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 118-، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده کامپیوتر کلاس شماره 118-</t>
@@ -9265,7 +9265,7 @@
     <t>آزمایشگاه اینترنت اشیا</t>
   </si>
   <si>
-    <t>ذبیح ا... پور علی</t>
+    <t>علی ذبیح ا... پور</t>
   </si>
   <si>
     <t>استاد این درس به مهندس ذبیح اله پور تغییر خواهد کرد.</t>
@@ -9313,7 +9313,7 @@
     <t>مدیریت منابع انسانی</t>
   </si>
   <si>
-    <t>اخوان خرازیان مریم</t>
+    <t>مریم اخوان خرازیان</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   19:00-21:00</t>
@@ -9337,7 +9337,7 @@
     <t>اصول اقتصاد</t>
   </si>
   <si>
-    <t>حکیمی پور نادر</t>
+    <t>نادر حکیمی پور</t>
   </si>
   <si>
     <t>مجاز برای مقطع کارشناسی ارشد، دوره نوبت دوم، دانشکده واحد دماوند، گروه آموزشی گروه مهندسی پیشرفت، رشته مدیریت کسب و کار - استراتژی،</t>
@@ -9352,7 +9352,7 @@
     <t>ارزشهای دفاع مقدس</t>
   </si>
   <si>
-    <t>دری کفرانی محمد</t>
+    <t>محمد دری کفرانی</t>
   </si>
   <si>
     <t>2711001_02</t>
@@ -9370,7 +9370,7 @@
     <t>400</t>
   </si>
   <si>
-    <t>شاه علی احمد رضا</t>
+    <t>رضا شاه علی احمد</t>
   </si>
   <si>
     <t>درس(ت): جمعه      10:00-11:30</t>
@@ -9385,7 +9385,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>غضنفری سید علی</t>
+    <t>سید علیغضنفری</t>
   </si>
   <si>
     <t>درس(ت): جمعه      11:30-13:00</t>
@@ -9394,7 +9394,7 @@
     <t>2711503_02</t>
   </si>
   <si>
-    <t>محسنی مصطفی</t>
+    <t>مصطفی محسنی</t>
   </si>
   <si>
     <t>زبان</t>
@@ -9406,7 +9406,7 @@
     <t>زبان انگلیسی</t>
   </si>
   <si>
-    <t>میرطباطبایی سیدمحمود</t>
+    <t>سید محمودمیرطباطبایی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      08:00-10:00 مکان: علوم پایه کلاس شماره 304، درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 304</t>
@@ -9427,7 +9427,7 @@
     <t>2811005_22</t>
   </si>
   <si>
-    <t>واعظی شهین</t>
+    <t>شهین واعظی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00 مکان: علوم پایه کلاس شماره 305، درس(ت): چهارشنبه  08:00-10:00 مکان: علوم پایه کلاس شماره 305</t>
@@ -9448,7 +9448,7 @@
     <t>2811005_25</t>
   </si>
   <si>
-    <t>هادی نوراله</t>
+    <t>نوراله هادی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 306، درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 306</t>
@@ -9457,7 +9457,7 @@
     <t>2811005_26</t>
   </si>
   <si>
-    <t>نیرنیا اکرم</t>
+    <t>اکرم نیرنیا</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 306، درس(ت): چهارشنبه  10:00-12:00 مکان: علوم پایه کلاس شماره 306</t>
@@ -9466,7 +9466,7 @@
     <t>2811005_27</t>
   </si>
   <si>
-    <t>امینی فارسانی محمد</t>
+    <t>محمد امینی فارسانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 305، درس(ت): سه شنبه   10:00-12:00 مکان: علوم پایه کلاس شماره 305</t>
@@ -9481,7 +9481,7 @@
     <t>2811005_29</t>
   </si>
   <si>
-    <t>تقی زاده محبوبه</t>
+    <t>محبوبه تقی زاده</t>
   </si>
   <si>
     <t>درس(ت): شنبه      10:00-12:00 مکان: علوم پایه کلاس شماره 306، درس(ت): دوشنبه    10:00-12:00 مکان: علوم پایه کلاس شماره 307</t>
@@ -9499,7 +9499,7 @@
     <t>زبان فرانسه</t>
   </si>
   <si>
-    <t>هوشمند همدانی نرگس</t>
+    <t>نرگس هوشمند همدانی</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: دانشکده زبان کلاس شماره 305، درس(ت): سه شنبه   15:30-17:30 مکان: دانشکده زبان کلاس شماره 305</t>
@@ -9511,7 +9511,7 @@
     <t>زبان تخصصی</t>
   </si>
   <si>
-    <t>جوادپور جعفرهاشمی نیاسری مسعود</t>
+    <t>مسعود جوادپور جعفرهاشمی نیاسری</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   10:00-12:00 نیمه1 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425، درس(ت): سه شنبه   10:00-12:00 نیمه2 ت مکان: دانشکده متالوژی و مواد کلاس شماره 425</t>
@@ -9520,7 +9520,7 @@
     <t>2811027_02</t>
   </si>
   <si>
-    <t>برادران شکوهی شهریار</t>
+    <t>شهریار برادران شکوهی</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-15:30 مکان: دانشکده برق (شهید چمران) کلاس شماره 209</t>
@@ -9583,7 +9583,7 @@
     <t>شیمی تجزیه</t>
   </si>
   <si>
-    <t>غفاری نژاد علی</t>
+    <t>علی غفاری نژاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 137، درس(ت): دوشنبه    15:30-17:30 مکان: دانشکده مهندسی شیمی کلاس شماره 137</t>
@@ -9595,7 +9595,7 @@
     <t>آزمایشگاه شیمی عمومی</t>
   </si>
   <si>
-    <t>گرشاسبی وحیداقتصادی آذر حبیب اله</t>
+    <t>اله گرشاسبی وحیداقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): شنبه      08:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9625,7 +9625,7 @@
     <t>2911077_05</t>
   </si>
   <si>
-    <t>گرشاسبی وحید</t>
+    <t>وحید گرشاسبی</t>
   </si>
   <si>
     <t>درس(ع): شنبه      17:30-19:30 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9640,7 +9640,7 @@
     <t>شیمی آلی مهندسی شیمی</t>
   </si>
   <si>
-    <t>غفوری حسین</t>
+    <t>حسین غفوری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 105، درس(ت): سه شنبه   15:30-17:30 مکان: علوم پایه کلاس شماره 105</t>
@@ -9652,7 +9652,7 @@
     <t>آزمایشگاه شیمی آلی مهندسی شیمی</t>
   </si>
   <si>
-    <t>عسگری محمدصادق</t>
+    <t>محمدصادق عسگری</t>
   </si>
   <si>
     <t>درس(ع): دوشنبه    07:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9676,7 +9676,7 @@
     <t>2911081_01</t>
   </si>
   <si>
-    <t>عسگری محمدصادقاقتصادی آذر حبیب اله</t>
+    <t>اله عسگری محمدصادقاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): یک شنبه   07:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9706,7 +9706,7 @@
     <t>آزمایشگاه شیمی تجزیه</t>
   </si>
   <si>
-    <t>زارع دورابی روح الهاقتصادی آذر حبیب اله</t>
+    <t>اله زارع دورابی روح الهاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   07:00-10:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9718,7 +9718,7 @@
     <t>2911083_02</t>
   </si>
   <si>
-    <t>ملاحسینی افسانهاقتصادی آذر حبیب اله</t>
+    <t>اله ملاحسینی افسانهاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   10:00-13:00 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9727,7 +9727,7 @@
     <t>2911083_03</t>
   </si>
   <si>
-    <t>غفاری نژاد علیاقتصادی آذر حبیب اله</t>
+    <t>اله غفاری نژاد علیاقتصادی آذر حبیب</t>
   </si>
   <si>
     <t>درس(ع): سه شنبه   13:30-16:30 مکان: دانشکده شیمی آزمایشگاه شماره 235</t>
@@ -9790,7 +9790,7 @@
     <t>دانش خانواده و جمعیت</t>
   </si>
   <si>
-    <t>غفاری جواد</t>
+    <t>جواد غفاری</t>
   </si>
   <si>
     <t>درس(ت): یک شنبه   10:00-12:00</t>
@@ -9811,7 +9811,7 @@
     <t>9011031_04</t>
   </si>
   <si>
-    <t>البرزی زهرا</t>
+    <t>زهرا البرزی</t>
   </si>
   <si>
     <t>9011031_05</t>
@@ -9823,7 +9823,7 @@
     <t>9011031_07</t>
   </si>
   <si>
-    <t>قاسمی محمود رضا</t>
+    <t>رضا قاسمی محمود</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    08:00-10:00</t>
@@ -9835,7 +9835,7 @@
     <t>9011031_09</t>
   </si>
   <si>
-    <t>داودی عبدالوحید</t>
+    <t>عبدالوحید داودی</t>
   </si>
   <si>
     <t>9011031_10</t>
@@ -9862,7 +9862,7 @@
     <t>فارسی</t>
   </si>
   <si>
-    <t>نصیری محسن</t>
+    <t>محسن نصیری</t>
   </si>
   <si>
     <t>9011054_02</t>
@@ -9883,13 +9883,13 @@
     <t>9011054_07</t>
   </si>
   <si>
-    <t>ارجمندی عبدالمجید</t>
+    <t>عبدالمجید ارجمندی</t>
   </si>
   <si>
     <t>9011054_08</t>
   </si>
   <si>
-    <t>طباطبایی شیرازانی سیدذبیح الله</t>
+    <t>ذبیح اللهطباطبایی شیرازانی سید</t>
   </si>
   <si>
     <t>9011054_09</t>
@@ -9934,7 +9934,7 @@
     <t>اندیشه اسلامی1</t>
   </si>
   <si>
-    <t>سجادی سید حسین</t>
+    <t>سید حسینسجادی</t>
   </si>
   <si>
     <t>9011086_02</t>
@@ -9943,7 +9943,7 @@
     <t>9011086_03</t>
   </si>
   <si>
-    <t>سوری روح الله</t>
+    <t>الله سوری روح</t>
   </si>
   <si>
     <t>9011086_04</t>
@@ -9955,7 +9955,7 @@
     <t>9011086_06</t>
   </si>
   <si>
-    <t>کریمی حمید</t>
+    <t>حمید کریمی</t>
   </si>
   <si>
     <t>9011086_07</t>
@@ -9970,7 +9970,7 @@
     <t>9011086_10</t>
   </si>
   <si>
-    <t>واعظی بهروز</t>
+    <t>بهروز واعظی</t>
   </si>
   <si>
     <t>9011086_11</t>
@@ -9979,7 +9979,7 @@
     <t>9011086_12</t>
   </si>
   <si>
-    <t>قاسمی محمود رضامرشد سلوک مصطفی</t>
+    <t>مصطفی قاسمی محمود رضامرشد سلوک</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    15:30-17:30</t>
@@ -9991,7 +9991,7 @@
     <t>اندیشه اسلامی2</t>
   </si>
   <si>
-    <t>احمدی مسلم</t>
+    <t>مسلم احمدی</t>
   </si>
   <si>
     <t>9011087_02</t>
@@ -10003,7 +10003,7 @@
     <t>9011087_04</t>
   </si>
   <si>
-    <t>مرشد سلوک مصطفی</t>
+    <t>مصطفی مرشد سلوک</t>
   </si>
   <si>
     <t>9011087_05</t>
@@ -10024,7 +10024,7 @@
     <t>9011087_09</t>
   </si>
   <si>
-    <t>شجاع منظری غلامعلی</t>
+    <t>غلامعلی شجاع منظری</t>
   </si>
   <si>
     <t>9011087_10</t>
@@ -10069,7 +10069,7 @@
     <t>9011091_04</t>
   </si>
   <si>
-    <t>پارچه باف رضا</t>
+    <t>رضا پارچه باف</t>
   </si>
   <si>
     <t>9011091_05</t>
@@ -10084,7 +10084,7 @@
     <t>9011091_08</t>
   </si>
   <si>
-    <t>عرب زاده الهه</t>
+    <t>الهه عرب زاده</t>
   </si>
   <si>
     <t>9011091_09</t>
@@ -10093,7 +10093,7 @@
     <t>9011091_10</t>
   </si>
   <si>
-    <t>سلیمی سعید</t>
+    <t>سعید سلیمی</t>
   </si>
   <si>
     <t>9011094_01</t>
@@ -10120,7 +10120,7 @@
     <t>9011094_07</t>
   </si>
   <si>
-    <t>متقی زاده احمد</t>
+    <t>احمد متقی زاده</t>
   </si>
   <si>
     <t>9011094_08</t>
@@ -10129,7 +10129,7 @@
     <t>9011094_09</t>
   </si>
   <si>
-    <t>اسدی مهدی</t>
+    <t>مهدی اسدی</t>
   </si>
   <si>
     <t>9011094_10</t>
@@ -10141,7 +10141,7 @@
     <t>تاریخ تحلیلی صدر اسلام</t>
   </si>
   <si>
-    <t>زاهدی مقدم محمد</t>
+    <t>محمد زاهدی مقدم</t>
   </si>
   <si>
     <t>9011098_02</t>
@@ -10153,7 +10153,7 @@
     <t>9011098_04</t>
   </si>
   <si>
-    <t>تاج الدین علی محمد</t>
+    <t>محمد تاج الدین علی</t>
   </si>
   <si>
     <t>9011098_05</t>
@@ -10168,7 +10168,7 @@
     <t>9011098_08</t>
   </si>
   <si>
-    <t>خادم الحسینی سید پیمان</t>
+    <t>سید پیمانخادم الحسینی</t>
   </si>
   <si>
     <t>9011098_09</t>
@@ -10180,7 +10180,7 @@
     <t>تفسیر موضوعی قران</t>
   </si>
   <si>
-    <t>نصیری علی</t>
+    <t>علی نصیری</t>
   </si>
   <si>
     <t>9011100_02</t>
@@ -10192,7 +10192,7 @@
     <t>9011100_04</t>
   </si>
   <si>
-    <t>صادقی حسن</t>
+    <t>حسن صادقی</t>
   </si>
   <si>
     <t>9011100_05</t>
@@ -10213,7 +10213,7 @@
     <t>9011101_03</t>
   </si>
   <si>
-    <t>موسوی سیداصغر</t>
+    <t>سید اصغرموسوی</t>
   </si>
   <si>
     <t>9011101_04</t>
@@ -10258,7 +10258,7 @@
     <t>تربیت بدنی</t>
   </si>
   <si>
-    <t>سیفی حمید</t>
+    <t>حمید سیفی</t>
   </si>
   <si>
     <t>تاریخ: 1399/04/01  ساعت: 13:30-14:00</t>
@@ -10270,7 +10270,7 @@
     <t>9011156_02</t>
   </si>
   <si>
-    <t>سیف رضا</t>
+    <t>رضا سیف</t>
   </si>
   <si>
     <t>9011156_03</t>
@@ -10285,7 +10285,7 @@
     <t>9011156_05</t>
   </si>
   <si>
-    <t>نجاریان مهدی</t>
+    <t>مهدی نجاریان</t>
   </si>
   <si>
     <t>9011156_06</t>
@@ -10300,7 +10300,7 @@
     <t>9011156_07</t>
   </si>
   <si>
-    <t>شریعتی جمال الدین</t>
+    <t>الدین شریعتی جمال</t>
   </si>
   <si>
     <t>9011156_08</t>
@@ -10315,13 +10315,13 @@
     <t>9011156_11</t>
   </si>
   <si>
-    <t>نوروزی مجید</t>
+    <t>مجید نوروزی</t>
   </si>
   <si>
     <t>9011156_12</t>
   </si>
   <si>
-    <t>محمد صالح علی</t>
+    <t>علی محمد صالح</t>
   </si>
   <si>
     <t>9011156_13</t>
@@ -10330,7 +10330,7 @@
     <t>9011156_40</t>
   </si>
   <si>
-    <t>فطروسی فرنوش</t>
+    <t>فرنوش فطروسی</t>
   </si>
   <si>
     <t>سالن حجاب</t>
@@ -10342,7 +10342,7 @@
     <t>9011156_42</t>
   </si>
   <si>
-    <t>اسماعیلی شهرزاد</t>
+    <t>شهرزاد اسماعیلی</t>
   </si>
   <si>
     <t>9011156_43</t>
@@ -10351,7 +10351,7 @@
     <t>9011156_44</t>
   </si>
   <si>
-    <t>نمازی آسیه</t>
+    <t>آسیه نمازی</t>
   </si>
   <si>
     <t>9011157_01</t>
@@ -10465,7 +10465,7 @@
     <t>9011157_33</t>
   </si>
   <si>
-    <t>محمدیان امید</t>
+    <t>امید محمدیان</t>
   </si>
   <si>
     <t>9011157_34</t>
@@ -10495,7 +10495,7 @@
     <t>کارآفرینی</t>
   </si>
   <si>
-    <t>صالحی سید میعاد</t>
+    <t>سید میعادصالحی</t>
   </si>
   <si>
     <t>درس(ت): دوشنبه    10:00-12:00 مکان: ساختمان شماره 1 دانشکده مهندسی عمران کلاس شماره 2</t>
@@ -10513,7 +10513,7 @@
     <t>9011222_04</t>
   </si>
   <si>
-    <t>پارسا نژاد محمدرضا</t>
+    <t>محمدرضا پارسا نژاد</t>
   </si>
   <si>
     <t>درس(ت): شنبه      13:30-14:30 مکان: دانشکده راه آهن کلاس شهید متوسلیان</t>
@@ -10528,7 +10528,7 @@
     <t>آشنایی با رشته و مهارتهای دانشجویی</t>
   </si>
   <si>
-    <t>تقدیر سمانهعلی اکبر علیرضا</t>
+    <t>علیرضا تقدیر سمانهعلی اکبر</t>
   </si>
   <si>
     <t>درس(ت): سه شنبه   13:30-15:30 مکان: دانشکده معماری ساختمان شماره  2(جدید) آمقی تئاتر 2</t>
@@ -10899,7 +10899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
       <selection activeCell="H660" sqref="H660"/>
     </sheetView>
   </sheetViews>
